--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Full VPOP Classification Summary.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Full VPOP Classification Summary.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher/Documents/PTSD/NCDE Model/Classification Results/Augmented Data/Full VPOP Classification/By Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819DC05B-AD05-324D-B630-DA6F12B153E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33414768-CB58-D746-8DC4-9D5EC31206B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="20240" xr2:uid="{064A12D9-DF30-0A45-B172-879C6B680B9E}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="38400" windowHeight="20260" activeTab="2" xr2:uid="{064A12D9-DF30-0A45-B172-879C6B680B9E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Histogram Data" sheetId="4" r:id="rId2"/>
+    <sheet name="Graphs" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="37">
   <si>
     <t>Mean</t>
   </si>
@@ -130,12 +132,30 @@
   <si>
     <t>19, 31, 22, 5, 21</t>
   </si>
+  <si>
+    <t>Bins</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>10% Noise</t>
+  </si>
+  <si>
+    <t>5% Noise</t>
+  </si>
+  <si>
+    <t>1% Noise</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,6 +179,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -286,11 +322,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -303,12 +407,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -321,13 +419,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -343,6 +499,2994 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Comparative Histogram - 5% Noise</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>5% Noise - 100 Iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CD7-104B-B249-C6F19ADF863B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>5% Noise - 200 Iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2CD7-104B-B249-C6F19ADF863B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="803577456"/>
+        <c:axId val="803971360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="803577456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803971360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="803971360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803577456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Individual Histogram - 5% Noise (100 Iterations)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>5% Noise - 100 Iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$D$4:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42B2-C442-9828-74274A67AD0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="803577456"/>
+        <c:axId val="803971360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="803577456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803971360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="803971360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803577456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Individual Histogram - 5% Noise (200</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Iterations)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>5% Noise - 200 Iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$E$4:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-894C-0B46-AC41-3BD851775938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="803577456"/>
+        <c:axId val="803971360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="803577456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803971360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="803971360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803577456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5895B69D-127A-E634-5D74-F61C8CEA6C98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13A9C077-CBD7-E346-80B8-D8F9DAF5B7E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7A701F-6988-0B4E-B748-52795FEB6233}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -642,10 +3786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF02A33-AEE7-C74D-B125-3664DD3F27B5}">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="J34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AD46" sqref="AD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,91 +3797,167 @@
     <col min="1" max="2" width="8.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="14" width="15" customWidth="1"/>
+    <col min="19" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="14.83203125" customWidth="1"/>
+    <col min="22" max="22" width="15" customWidth="1"/>
+    <col min="23" max="28" width="14.83203125" customWidth="1"/>
+    <col min="29" max="29" width="15" customWidth="1"/>
+    <col min="30" max="30" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="Q1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="Q2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
     </row>
-    <row r="3" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="12" t="s">
-        <v>0</v>
+      <c r="O3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="Q4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="16"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
@@ -754,12 +3974,67 @@
         <f>SUM(C5:M5)/123</f>
         <v>0</v>
       </c>
+      <c r="Q5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R5" s="29"/>
+      <c r="S5" s="20">
+        <f>C5/10</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" ref="T5:AC14" si="0">D5/10</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <f>N5/8</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="31">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -772,15 +4047,70 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="4">
-        <f t="shared" ref="O6:O14" si="0">SUM(C6:M6)/123</f>
-        <v>0</v>
+        <f t="shared" ref="O6:O14" si="1">SUM(C6:M6)/123</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="23"/>
+      <c r="S6" s="21">
+        <f t="shared" ref="S6:S14" si="2">C6/10</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
+        <f t="shared" ref="AD6:AD14" si="3">N6/8</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="31">
+        <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -793,15 +4123,70 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="23"/>
+      <c r="S7" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="31">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -814,15 +4199,70 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="23"/>
+      <c r="S8" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="32">
+        <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -835,15 +4275,70 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="23"/>
+      <c r="S9" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="32">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -856,15 +4351,70 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="23"/>
+      <c r="S10" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="32">
+        <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -877,15 +4427,70 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="23"/>
+      <c r="S11" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="32">
+        <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -898,15 +4503,70 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="23"/>
+      <c r="S12" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="32">
+        <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -919,15 +4579,70 @@
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" s="23"/>
+      <c r="S13" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="32">
+        <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -940,11 +4655,66 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="30"/>
+      <c r="S14" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="33">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>0</v>
       </c>
@@ -954,43 +4724,43 @@
         <v>0</v>
       </c>
       <c r="D15" s="7">
-        <f t="shared" ref="D15:M15" si="1">SUM(D5:D14)/100</f>
+        <f t="shared" ref="D15:M15" si="4">SUM(D5:D14)/100</f>
         <v>0</v>
       </c>
       <c r="E15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N15" s="7">
@@ -1001,8 +4771,23 @@
         <f>SUM(C5:M14)/1180</f>
         <v>0</v>
       </c>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="N16" s="4" t="s">
@@ -1012,8 +4797,23 @@
         <f>SUM(C5:M14)</f>
         <v>0</v>
       </c>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="N17" s="6" t="s">
@@ -1023,83 +4823,161 @@
         <f>SUM(-O16, 1180)</f>
         <v>1180</v>
       </c>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
     </row>
-    <row r="18" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="Q18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
     </row>
-    <row r="19" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="K19" s="10" t="s">
         <v>17</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="12" t="s">
-        <v>0</v>
-      </c>
+      <c r="O19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" t="s">
+        <v>7</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="W19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE19" s="23"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="Q20" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="23"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
@@ -1116,12 +4994,65 @@
         <f>SUM(C21:M21)/123</f>
         <v>0</v>
       </c>
+      <c r="Q21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="13"/>
+      <c r="S21" s="20">
+        <f>C21/10</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="4">
+        <f t="shared" ref="T21:T30" si="5">D21/10</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <f t="shared" ref="U21:U30" si="6">E21/10</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <f t="shared" ref="V21:V30" si="7">F21/10</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <f t="shared" ref="W21:W30" si="8">G21/10</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <f t="shared" ref="X21:X30" si="9">H21/10</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <f t="shared" ref="Y21:Y30" si="10">I21/10</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <f t="shared" ref="Z21:Z30" si="11">J21/10</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <f t="shared" ref="AA21:AA30" si="12">K21/10</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4">
+        <f t="shared" ref="AB21:AB30" si="13">L21/10</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <f t="shared" ref="AC21:AC30" si="14">M21/10</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4">
+        <f>N21/8</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="24"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1134,15 +5065,68 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="4">
-        <f t="shared" ref="O22:O30" si="2">SUM(C22:M22)/123</f>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="O22:O30" si="15">SUM(C22:M22)/123</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" s="15"/>
+      <c r="S22" s="21">
+        <f t="shared" ref="S22:S30" si="16">C22/10</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="5">
+        <f t="shared" ref="AD22:AD30" si="17">N22/8</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="24"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -1155,15 +5139,68 @@
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R23" s="15"/>
+      <c r="S23" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="24"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -1176,15 +5213,68 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="15"/>
+      <c r="S24" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="28"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -1197,15 +5287,68 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R25" s="15"/>
+      <c r="S25" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="28"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1218,15 +5361,68 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="15"/>
+      <c r="S26" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="28"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1239,15 +5435,68 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" s="15"/>
+      <c r="S27" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="28"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1260,15 +5509,68 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R28" s="15"/>
+      <c r="S28" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="28"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1281,15 +5583,68 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R29" s="15"/>
+      <c r="S29" s="21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="24">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="24">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="28"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1302,11 +5657,64 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30" s="26"/>
+      <c r="S30" s="22">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="27">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="27">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="27">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="28"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>0</v>
       </c>
@@ -1316,43 +5724,43 @@
         <v>0</v>
       </c>
       <c r="D31" s="7">
-        <f t="shared" ref="D31" si="3">SUM(D21:D30)/100</f>
+        <f t="shared" ref="D31" si="18">SUM(D21:D30)/100</f>
         <v>0</v>
       </c>
       <c r="E31" s="7">
-        <f t="shared" ref="E31" si="4">SUM(E21:E30)/100</f>
+        <f t="shared" ref="E31" si="19">SUM(E21:E30)/100</f>
         <v>0</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" ref="F31" si="5">SUM(F21:F30)/100</f>
+        <f t="shared" ref="F31" si="20">SUM(F21:F30)/100</f>
         <v>0</v>
       </c>
       <c r="G31" s="7">
-        <f t="shared" ref="G31" si="6">SUM(G21:G30)/100</f>
+        <f t="shared" ref="G31" si="21">SUM(G21:G30)/100</f>
         <v>0</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" ref="H31" si="7">SUM(H21:H30)/100</f>
+        <f t="shared" ref="H31" si="22">SUM(H21:H30)/100</f>
         <v>0</v>
       </c>
       <c r="I31" s="7">
-        <f t="shared" ref="I31" si="8">SUM(I21:I30)/100</f>
+        <f t="shared" ref="I31" si="23">SUM(I21:I30)/100</f>
         <v>0</v>
       </c>
       <c r="J31" s="7">
-        <f t="shared" ref="J31" si="9">SUM(J21:J30)/100</f>
+        <f t="shared" ref="J31" si="24">SUM(J21:J30)/100</f>
         <v>0</v>
       </c>
       <c r="K31" s="7">
-        <f t="shared" ref="K31" si="10">SUM(K21:K30)/100</f>
+        <f t="shared" ref="K31" si="25">SUM(K21:K30)/100</f>
         <v>0</v>
       </c>
       <c r="L31" s="7">
-        <f t="shared" ref="L31" si="11">SUM(L21:L30)/100</f>
+        <f t="shared" ref="L31" si="26">SUM(L21:L30)/100</f>
         <v>0</v>
       </c>
       <c r="M31" s="7">
-        <f t="shared" ref="M31" si="12">SUM(M21:M30)/100</f>
+        <f t="shared" ref="M31" si="27">SUM(M21:M30)/100</f>
         <v>0</v>
       </c>
       <c r="N31" s="7">
@@ -1363,8 +5771,23 @@
         <f>SUM(C21:M30)/1180</f>
         <v>0</v>
       </c>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="24"/>
+      <c r="AA31" s="24"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="24"/>
+      <c r="AD31" s="24"/>
+      <c r="AE31" s="24"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="N32" s="4" t="s">
@@ -1374,8 +5797,23 @@
         <f>SUM(C21:M30)</f>
         <v>0</v>
       </c>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="24"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="N33" s="6" t="s">
@@ -1385,355 +5823,1232 @@
         <f>SUM(-O32, 1180)</f>
         <v>1180</v>
       </c>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
     </row>
-    <row r="34" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="Q34" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
     </row>
-    <row r="35" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="Q35" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
     </row>
-    <row r="36" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J36" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="K36" s="10" t="s">
         <v>17</v>
       </c>
       <c r="L36" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M36" s="12" t="s">
+      <c r="M36" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N36" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="O36" s="12" t="s">
-        <v>0</v>
-      </c>
+      <c r="O36" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="U36" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V36" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="W36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="X36" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z36" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD36" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE36" s="23"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="Q37" t="s">
+        <v>8</v>
+      </c>
+      <c r="R37" s="2"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="23"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="4">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5</v>
+      </c>
+      <c r="E38" s="4">
+        <v>6</v>
+      </c>
+      <c r="F38" s="3">
+        <v>7</v>
+      </c>
+      <c r="G38" s="4">
+        <v>7</v>
+      </c>
+      <c r="H38" s="3">
+        <v>5</v>
+      </c>
+      <c r="I38" s="4">
+        <v>8</v>
+      </c>
+      <c r="J38" s="3">
+        <v>8</v>
+      </c>
+      <c r="K38" s="4">
+        <v>6</v>
+      </c>
+      <c r="L38" s="5">
+        <v>7</v>
+      </c>
+      <c r="M38" s="4">
+        <v>8</v>
+      </c>
+      <c r="N38" s="4">
+        <v>6</v>
+      </c>
       <c r="O38" s="4">
         <f>SUM(C38:M38)/123</f>
-        <v>0</v>
-      </c>
+        <v>0.60162601626016265</v>
+      </c>
+      <c r="Q38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R38" s="13"/>
+      <c r="S38" s="20">
+        <f>C38/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="T38" s="4">
+        <f t="shared" ref="T38:T47" si="28">D38/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="U38" s="3">
+        <f t="shared" ref="U38:U47" si="29">E38/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="V38" s="4">
+        <f t="shared" ref="V38:V47" si="30">F38/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="W38" s="3">
+        <f t="shared" ref="W38:W47" si="31">G38/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="X38" s="4">
+        <f t="shared" ref="X38:X47" si="32">H38/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="Y38" s="3">
+        <f t="shared" ref="Y38:Y47" si="33">I38/10</f>
+        <v>0.8</v>
+      </c>
+      <c r="Z38" s="4">
+        <f t="shared" ref="Z38:Z47" si="34">J38/10</f>
+        <v>0.8</v>
+      </c>
+      <c r="AA38" s="3">
+        <f t="shared" ref="AA38:AA47" si="35">K38/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="AB38" s="4">
+        <f t="shared" ref="AB38:AB47" si="36">L38/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="AC38" s="3">
+        <f t="shared" ref="AC38:AC47" si="37">M38/10</f>
+        <v>0.8</v>
+      </c>
+      <c r="AD38" s="4">
+        <f>N38/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="AE38" s="24"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="5">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="5">
+        <v>4</v>
+      </c>
+      <c r="F39" s="5">
+        <v>6</v>
+      </c>
+      <c r="G39" s="5">
+        <v>6</v>
+      </c>
+      <c r="H39" s="5">
+        <v>5</v>
+      </c>
+      <c r="I39" s="5">
+        <v>4</v>
+      </c>
+      <c r="J39" s="5">
+        <v>6</v>
+      </c>
+      <c r="K39" s="5">
+        <v>4</v>
+      </c>
+      <c r="L39" s="5">
+        <v>4</v>
+      </c>
+      <c r="M39" s="5">
+        <v>4</v>
+      </c>
+      <c r="N39" s="5">
+        <v>4</v>
+      </c>
       <c r="O39" s="4">
-        <f t="shared" ref="O39:O47" si="13">SUM(C39:M39)/123</f>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="O39:O47" si="38">SUM(C39:M39)/123</f>
+        <v>0.4065040650406504</v>
+      </c>
+      <c r="Q39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39" s="15"/>
+      <c r="S39" s="21">
+        <f t="shared" ref="S39:S47" si="39">C39/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="T39" s="5">
+        <f t="shared" si="28"/>
+        <v>0.2</v>
+      </c>
+      <c r="U39" s="24">
+        <f t="shared" si="29"/>
+        <v>0.4</v>
+      </c>
+      <c r="V39" s="5">
+        <f t="shared" si="30"/>
+        <v>0.6</v>
+      </c>
+      <c r="W39" s="24">
+        <f t="shared" si="31"/>
+        <v>0.6</v>
+      </c>
+      <c r="X39" s="5">
+        <f t="shared" si="32"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y39" s="24">
+        <f t="shared" si="33"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z39" s="5">
+        <f t="shared" si="34"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA39" s="24">
+        <f t="shared" si="35"/>
+        <v>0.4</v>
+      </c>
+      <c r="AB39" s="5">
+        <f t="shared" si="36"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC39" s="24">
+        <f t="shared" si="37"/>
+        <v>0.4</v>
+      </c>
+      <c r="AD39" s="5">
+        <f t="shared" ref="AD39:AD47" si="40">N39/8</f>
+        <v>0.5</v>
+      </c>
+      <c r="AE39" s="24"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="5">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40" s="5">
+        <v>7</v>
+      </c>
+      <c r="F40" s="5">
+        <v>8</v>
+      </c>
+      <c r="G40" s="5">
+        <v>7</v>
+      </c>
+      <c r="H40" s="5">
+        <v>7</v>
+      </c>
+      <c r="I40" s="5">
+        <v>8</v>
+      </c>
+      <c r="J40" s="5">
+        <v>9</v>
+      </c>
+      <c r="K40" s="5">
+        <v>8</v>
+      </c>
+      <c r="L40" s="5">
+        <v>6</v>
+      </c>
+      <c r="M40" s="5">
+        <v>9</v>
+      </c>
+      <c r="N40" s="5">
+        <v>6</v>
+      </c>
       <c r="O40" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q40" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R40" s="15"/>
+      <c r="S40" s="21">
+        <f t="shared" si="39"/>
+        <v>0.7</v>
+      </c>
+      <c r="T40" s="5">
+        <f t="shared" si="28"/>
+        <v>0.6</v>
+      </c>
+      <c r="U40" s="24">
+        <f t="shared" si="29"/>
+        <v>0.7</v>
+      </c>
+      <c r="V40" s="5">
+        <f t="shared" si="30"/>
+        <v>0.8</v>
+      </c>
+      <c r="W40" s="24">
+        <f t="shared" si="31"/>
+        <v>0.7</v>
+      </c>
+      <c r="X40" s="5">
+        <f t="shared" si="32"/>
+        <v>0.7</v>
+      </c>
+      <c r="Y40" s="24">
+        <f t="shared" si="33"/>
+        <v>0.8</v>
+      </c>
+      <c r="Z40" s="5">
+        <f t="shared" si="34"/>
+        <v>0.9</v>
+      </c>
+      <c r="AA40" s="24">
+        <f t="shared" si="35"/>
+        <v>0.8</v>
+      </c>
+      <c r="AB40" s="5">
+        <f t="shared" si="36"/>
+        <v>0.6</v>
+      </c>
+      <c r="AC40" s="24">
+        <f t="shared" si="37"/>
+        <v>0.9</v>
+      </c>
+      <c r="AD40" s="5">
+        <f t="shared" si="40"/>
+        <v>0.75</v>
+      </c>
+      <c r="AE40" s="24"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="5">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41" s="5">
+        <v>7</v>
+      </c>
+      <c r="F41" s="5">
+        <v>10</v>
+      </c>
+      <c r="G41" s="5">
+        <v>7</v>
+      </c>
+      <c r="H41" s="5">
+        <v>7</v>
+      </c>
+      <c r="I41" s="5">
+        <v>8</v>
+      </c>
+      <c r="J41" s="5">
+        <v>10</v>
+      </c>
+      <c r="K41" s="5">
+        <v>7</v>
+      </c>
+      <c r="L41" s="5">
+        <v>8</v>
+      </c>
+      <c r="M41" s="5">
+        <v>9</v>
+      </c>
+      <c r="N41" s="5">
+        <v>7</v>
+      </c>
       <c r="O41" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v>0.69918699186991873</v>
+      </c>
+      <c r="Q41" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" s="15"/>
+      <c r="S41" s="21">
+        <f t="shared" si="39"/>
+        <v>0.7</v>
+      </c>
+      <c r="T41" s="5">
+        <f t="shared" si="28"/>
+        <v>0.6</v>
+      </c>
+      <c r="U41" s="24">
+        <f t="shared" si="29"/>
+        <v>0.7</v>
+      </c>
+      <c r="V41" s="5">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="W41" s="24">
+        <f t="shared" si="31"/>
+        <v>0.7</v>
+      </c>
+      <c r="X41" s="5">
+        <f t="shared" si="32"/>
+        <v>0.7</v>
+      </c>
+      <c r="Y41" s="24">
+        <f t="shared" si="33"/>
+        <v>0.8</v>
+      </c>
+      <c r="Z41" s="5">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AA41" s="24">
+        <f t="shared" si="35"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB41" s="5">
+        <f t="shared" si="36"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC41" s="24">
+        <f t="shared" si="37"/>
+        <v>0.9</v>
+      </c>
+      <c r="AD41" s="5">
+        <f t="shared" si="40"/>
+        <v>0.875</v>
+      </c>
+      <c r="AE41" s="28"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="5">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" s="5">
+        <v>6</v>
+      </c>
+      <c r="F42" s="5">
+        <v>6</v>
+      </c>
+      <c r="G42" s="5">
+        <v>5</v>
+      </c>
+      <c r="H42" s="5">
+        <v>6</v>
+      </c>
+      <c r="I42" s="5">
+        <v>6</v>
+      </c>
+      <c r="J42" s="5">
+        <v>7</v>
+      </c>
+      <c r="K42" s="5">
+        <v>6</v>
+      </c>
+      <c r="L42" s="5">
+        <v>6</v>
+      </c>
+      <c r="M42" s="5">
+        <v>7</v>
+      </c>
+      <c r="N42" s="5">
+        <v>4</v>
+      </c>
       <c r="O42" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v>0.51219512195121952</v>
+      </c>
+      <c r="Q42" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R42" s="15"/>
+      <c r="S42" s="21">
+        <f t="shared" si="39"/>
+        <v>0.5</v>
+      </c>
+      <c r="T42" s="5">
+        <f t="shared" si="28"/>
+        <v>0.3</v>
+      </c>
+      <c r="U42" s="24">
+        <f t="shared" si="29"/>
+        <v>0.6</v>
+      </c>
+      <c r="V42" s="5">
+        <f t="shared" si="30"/>
+        <v>0.6</v>
+      </c>
+      <c r="W42" s="24">
+        <f t="shared" si="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="X42" s="5">
+        <f t="shared" si="32"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y42" s="24">
+        <f t="shared" si="33"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z42" s="5">
+        <f t="shared" si="34"/>
+        <v>0.7</v>
+      </c>
+      <c r="AA42" s="24">
+        <f t="shared" si="35"/>
+        <v>0.6</v>
+      </c>
+      <c r="AB42" s="5">
+        <f t="shared" si="36"/>
+        <v>0.6</v>
+      </c>
+      <c r="AC42" s="24">
+        <f t="shared" si="37"/>
+        <v>0.7</v>
+      </c>
+      <c r="AD42" s="5">
+        <f t="shared" si="40"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE42" s="28"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="5">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" s="5">
+        <v>6</v>
+      </c>
+      <c r="F43" s="5">
+        <v>8</v>
+      </c>
+      <c r="G43" s="5">
+        <v>7</v>
+      </c>
+      <c r="H43" s="5">
+        <v>8</v>
+      </c>
+      <c r="I43" s="5">
+        <v>6</v>
+      </c>
+      <c r="J43" s="5">
+        <v>9</v>
+      </c>
+      <c r="K43" s="5">
+        <v>7</v>
+      </c>
+      <c r="L43" s="5">
+        <v>7</v>
+      </c>
+      <c r="M43" s="5">
+        <v>6</v>
+      </c>
+      <c r="N43" s="5">
+        <v>7</v>
+      </c>
       <c r="O43" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v>0.61788617886178865</v>
+      </c>
+      <c r="Q43" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R43" s="15"/>
+      <c r="S43" s="21">
+        <f t="shared" si="39"/>
+        <v>0.7</v>
+      </c>
+      <c r="T43" s="5">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+      <c r="U43" s="24">
+        <f t="shared" si="29"/>
+        <v>0.6</v>
+      </c>
+      <c r="V43" s="5">
+        <f t="shared" si="30"/>
+        <v>0.8</v>
+      </c>
+      <c r="W43" s="24">
+        <f t="shared" si="31"/>
+        <v>0.7</v>
+      </c>
+      <c r="X43" s="5">
+        <f t="shared" si="32"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y43" s="24">
+        <f t="shared" si="33"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z43" s="5">
+        <f t="shared" si="34"/>
+        <v>0.9</v>
+      </c>
+      <c r="AA43" s="24">
+        <f t="shared" si="35"/>
+        <v>0.7</v>
+      </c>
+      <c r="AB43" s="5">
+        <f t="shared" si="36"/>
+        <v>0.7</v>
+      </c>
+      <c r="AC43" s="24">
+        <f t="shared" si="37"/>
+        <v>0.6</v>
+      </c>
+      <c r="AD43" s="5">
+        <f t="shared" si="40"/>
+        <v>0.875</v>
+      </c>
+      <c r="AE43" s="28"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="11"/>
-      <c r="C44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="5">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" s="5">
+        <v>6</v>
+      </c>
+      <c r="F44" s="5">
+        <v>6</v>
+      </c>
+      <c r="G44" s="5">
+        <v>7</v>
+      </c>
+      <c r="H44" s="5">
+        <v>7</v>
+      </c>
+      <c r="I44" s="5">
+        <v>5</v>
+      </c>
+      <c r="J44" s="5">
+        <v>7</v>
+      </c>
+      <c r="K44" s="5">
+        <v>5</v>
+      </c>
+      <c r="L44" s="5">
+        <v>6</v>
+      </c>
+      <c r="M44" s="5">
+        <v>6</v>
+      </c>
+      <c r="N44" s="5">
+        <v>4</v>
+      </c>
       <c r="O44" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v>0.52845528455284552</v>
+      </c>
+      <c r="Q44" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R44" s="15"/>
+      <c r="S44" s="21">
+        <f t="shared" si="39"/>
+        <v>0.6</v>
+      </c>
+      <c r="T44" s="5">
+        <f t="shared" si="28"/>
+        <v>0.4</v>
+      </c>
+      <c r="U44" s="24">
+        <f t="shared" si="29"/>
+        <v>0.6</v>
+      </c>
+      <c r="V44" s="5">
+        <f t="shared" si="30"/>
+        <v>0.6</v>
+      </c>
+      <c r="W44" s="24">
+        <f t="shared" si="31"/>
+        <v>0.7</v>
+      </c>
+      <c r="X44" s="5">
+        <f t="shared" si="32"/>
+        <v>0.7</v>
+      </c>
+      <c r="Y44" s="24">
+        <f t="shared" si="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z44" s="5">
+        <f t="shared" si="34"/>
+        <v>0.7</v>
+      </c>
+      <c r="AA44" s="24">
+        <f t="shared" si="35"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB44" s="5">
+        <f t="shared" si="36"/>
+        <v>0.6</v>
+      </c>
+      <c r="AC44" s="24">
+        <f t="shared" si="37"/>
+        <v>0.6</v>
+      </c>
+      <c r="AD44" s="5">
+        <f t="shared" si="40"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE44" s="28"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="5">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" s="5">
+        <v>6</v>
+      </c>
+      <c r="F45" s="5">
+        <v>6</v>
+      </c>
+      <c r="G45" s="5">
+        <v>5</v>
+      </c>
+      <c r="H45" s="5">
+        <v>4</v>
+      </c>
+      <c r="I45" s="5">
+        <v>5</v>
+      </c>
+      <c r="J45" s="5">
+        <v>6</v>
+      </c>
+      <c r="K45" s="5">
+        <v>3</v>
+      </c>
+      <c r="L45" s="5">
+        <v>5</v>
+      </c>
+      <c r="M45" s="5">
+        <v>6</v>
+      </c>
+      <c r="N45" s="5">
+        <v>3</v>
+      </c>
       <c r="O45" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v>0.43089430894308944</v>
+      </c>
+      <c r="Q45" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R45" s="15"/>
+      <c r="S45" s="21">
+        <f t="shared" si="39"/>
+        <v>0.5</v>
+      </c>
+      <c r="T45" s="5">
+        <f t="shared" si="28"/>
+        <v>0.2</v>
+      </c>
+      <c r="U45" s="24">
+        <f t="shared" si="29"/>
+        <v>0.6</v>
+      </c>
+      <c r="V45" s="5">
+        <f t="shared" si="30"/>
+        <v>0.6</v>
+      </c>
+      <c r="W45" s="24">
+        <f t="shared" si="31"/>
+        <v>0.5</v>
+      </c>
+      <c r="X45" s="5">
+        <f t="shared" si="32"/>
+        <v>0.4</v>
+      </c>
+      <c r="Y45" s="24">
+        <f t="shared" si="33"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z45" s="5">
+        <f t="shared" si="34"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA45" s="24">
+        <f t="shared" si="35"/>
+        <v>0.3</v>
+      </c>
+      <c r="AB45" s="5">
+        <f t="shared" si="36"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC45" s="24">
+        <f t="shared" si="37"/>
+        <v>0.6</v>
+      </c>
+      <c r="AD45" s="5">
+        <f t="shared" si="40"/>
+        <v>0.375</v>
+      </c>
+      <c r="AE45" s="28"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="5">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46" s="5">
+        <v>7</v>
+      </c>
+      <c r="F46" s="5">
+        <v>8</v>
+      </c>
+      <c r="G46" s="5">
+        <v>7</v>
+      </c>
+      <c r="H46" s="5">
+        <v>8</v>
+      </c>
+      <c r="I46" s="5">
+        <v>7</v>
+      </c>
+      <c r="J46" s="5">
+        <v>9</v>
+      </c>
+      <c r="K46" s="5">
+        <v>6</v>
+      </c>
+      <c r="L46" s="5">
+        <v>7</v>
+      </c>
+      <c r="M46" s="5">
+        <v>8</v>
+      </c>
+      <c r="N46" s="5">
+        <v>8</v>
+      </c>
       <c r="O46" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v>0.64227642276422769</v>
+      </c>
+      <c r="Q46" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R46" s="15"/>
+      <c r="S46" s="21">
+        <f t="shared" si="39"/>
+        <v>0.8</v>
+      </c>
+      <c r="T46" s="5">
+        <f t="shared" si="28"/>
+        <v>0.4</v>
+      </c>
+      <c r="U46" s="24">
+        <f t="shared" si="29"/>
+        <v>0.7</v>
+      </c>
+      <c r="V46" s="5">
+        <f t="shared" si="30"/>
+        <v>0.8</v>
+      </c>
+      <c r="W46" s="24">
+        <f t="shared" si="31"/>
+        <v>0.7</v>
+      </c>
+      <c r="X46" s="5">
+        <f t="shared" si="32"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y46" s="24">
+        <f t="shared" si="33"/>
+        <v>0.7</v>
+      </c>
+      <c r="Z46" s="5">
+        <f t="shared" si="34"/>
+        <v>0.9</v>
+      </c>
+      <c r="AA46" s="24">
+        <f t="shared" si="35"/>
+        <v>0.6</v>
+      </c>
+      <c r="AB46" s="5">
+        <f t="shared" si="36"/>
+        <v>0.7</v>
+      </c>
+      <c r="AC46" s="24">
+        <f t="shared" si="37"/>
+        <v>0.8</v>
+      </c>
+      <c r="AD46" s="5">
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="AE46" s="28"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="5">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" s="5">
+        <v>6</v>
+      </c>
+      <c r="F47" s="5">
+        <v>7</v>
+      </c>
+      <c r="G47" s="5">
+        <v>8</v>
+      </c>
+      <c r="H47" s="5">
+        <v>6</v>
+      </c>
+      <c r="I47" s="5">
+        <v>7</v>
+      </c>
+      <c r="J47" s="5">
+        <v>6</v>
+      </c>
+      <c r="K47" s="5">
+        <v>5</v>
+      </c>
+      <c r="L47" s="5">
+        <v>6</v>
+      </c>
+      <c r="M47" s="5">
+        <v>7</v>
+      </c>
+      <c r="N47" s="5">
+        <v>6</v>
+      </c>
       <c r="O47" s="4">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v>0.55284552845528456</v>
+      </c>
+      <c r="Q47" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R47" s="26"/>
+      <c r="S47" s="22">
+        <f t="shared" si="39"/>
+        <v>0.7</v>
+      </c>
+      <c r="T47" s="6">
+        <f t="shared" si="28"/>
+        <v>0.3</v>
+      </c>
+      <c r="U47" s="27">
+        <f t="shared" si="29"/>
+        <v>0.6</v>
+      </c>
+      <c r="V47" s="6">
+        <f t="shared" si="30"/>
+        <v>0.7</v>
+      </c>
+      <c r="W47" s="27">
+        <f t="shared" si="31"/>
+        <v>0.8</v>
+      </c>
+      <c r="X47" s="6">
+        <f t="shared" si="32"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y47" s="27">
+        <f t="shared" si="33"/>
+        <v>0.7</v>
+      </c>
+      <c r="Z47" s="6">
+        <f t="shared" si="34"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA47" s="27">
+        <f t="shared" si="35"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB47" s="6">
+        <f t="shared" si="36"/>
+        <v>0.6</v>
+      </c>
+      <c r="AC47" s="27">
+        <f t="shared" si="37"/>
+        <v>0.7</v>
+      </c>
+      <c r="AD47" s="6">
+        <f t="shared" si="40"/>
+        <v>0.75</v>
+      </c>
+      <c r="AE47" s="28"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="7">
         <f>SUM(C38:C47)/100</f>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="D48" s="7">
-        <f t="shared" ref="D48" si="14">SUM(D38:D47)/100</f>
-        <v>0</v>
+        <f t="shared" ref="D48" si="41">SUM(D38:D47)/100</f>
+        <v>0.4</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" ref="E48" si="15">SUM(E38:E47)/100</f>
-        <v>0</v>
+        <f t="shared" ref="E48" si="42">SUM(E38:E47)/100</f>
+        <v>0.61</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" ref="F48" si="16">SUM(F38:F47)/100</f>
-        <v>0</v>
+        <f t="shared" ref="F48" si="43">SUM(F38:F47)/100</f>
+        <v>0.72</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" ref="G48" si="17">SUM(G38:G47)/100</f>
-        <v>0</v>
+        <f t="shared" ref="G48" si="44">SUM(G38:G47)/100</f>
+        <v>0.66</v>
       </c>
       <c r="H48" s="7">
-        <f t="shared" ref="H48" si="18">SUM(H38:H47)/100</f>
-        <v>0</v>
+        <f t="shared" ref="H48" si="45">SUM(H38:H47)/100</f>
+        <v>0.63</v>
       </c>
       <c r="I48" s="7">
-        <f t="shared" ref="I48" si="19">SUM(I38:I47)/100</f>
-        <v>0</v>
+        <f t="shared" ref="I48" si="46">SUM(I38:I47)/100</f>
+        <v>0.64</v>
       </c>
       <c r="J48" s="7">
-        <f t="shared" ref="J48" si="20">SUM(J38:J47)/100</f>
-        <v>0</v>
+        <f t="shared" ref="J48" si="47">SUM(J38:J47)/100</f>
+        <v>0.77</v>
       </c>
       <c r="K48" s="7">
-        <f t="shared" ref="K48" si="21">SUM(K38:K47)/100</f>
-        <v>0</v>
+        <f t="shared" ref="K48" si="48">SUM(K38:K47)/100</f>
+        <v>0.56999999999999995</v>
       </c>
       <c r="L48" s="7">
-        <f t="shared" ref="L48" si="22">SUM(L38:L47)/100</f>
-        <v>0</v>
+        <f>SUM(L38:L47)/100</f>
+        <v>0.62</v>
       </c>
       <c r="M48" s="7">
-        <f t="shared" ref="M48" si="23">SUM(M38:M47)/100</f>
-        <v>0</v>
+        <f t="shared" ref="M48" si="49">SUM(M38:M47)/100</f>
+        <v>0.7</v>
       </c>
       <c r="N48" s="7">
         <f>SUM(N38:N47)/80</f>
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="O48" s="7">
-        <f>SUM(C38:M47)/1180</f>
-        <v>0</v>
-      </c>
+        <f>SUM(C38:N47)/1180</f>
+        <v>0.63644067796610171</v>
+      </c>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="24"/>
+      <c r="AB48" s="24"/>
+      <c r="AC48" s="24"/>
+      <c r="AD48" s="24"/>
+      <c r="AE48" s="24"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="N49" s="4" t="s">
@@ -1741,10 +7056,25 @@
       </c>
       <c r="O49" s="7">
         <f>SUM(C38:M47)</f>
-        <v>0</v>
-      </c>
+        <v>696</v>
+      </c>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="24"/>
+      <c r="AB49" s="24"/>
+      <c r="AC49" s="24"/>
+      <c r="AD49" s="24"/>
+      <c r="AE49" s="24"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="N50" s="6" t="s">
@@ -1752,350 +7082,1222 @@
       </c>
       <c r="O50" s="7">
         <f>SUM(-O49, 1180)</f>
-        <v>1180</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="24"/>
+      <c r="AA50" s="24"/>
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="24"/>
+      <c r="AD50" s="24"/>
+      <c r="AE50" s="24"/>
     </row>
-    <row r="51" spans="1:15" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="Q51" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
     </row>
-    <row r="52" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="12" t="s">
+      <c r="G52" s="10" t="s">
         <v>13</v>
       </c>
       <c r="H52" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="I52" s="10" t="s">
         <v>15</v>
       </c>
       <c r="J52" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K52" s="12" t="s">
+      <c r="K52" s="10" t="s">
         <v>17</v>
       </c>
       <c r="L52" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="M52" s="12" t="s">
+      <c r="M52" s="10" t="s">
         <v>19</v>
       </c>
       <c r="N52" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="O52" s="12" t="s">
-        <v>0</v>
-      </c>
+      <c r="O52" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="1"/>
+      <c r="R52" t="s">
+        <v>7</v>
+      </c>
+      <c r="S52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T52" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="U52" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V52" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="W52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="X52" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z52" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA52" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB52" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD52" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE52" s="23"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="Q53" t="s">
+        <v>8</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="11"/>
+      <c r="AB53" s="11"/>
+      <c r="AC53" s="11"/>
+      <c r="AD53" s="19"/>
+      <c r="AE53" s="23"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="4">
+        <v>7</v>
+      </c>
+      <c r="D54" s="3">
+        <v>4</v>
+      </c>
+      <c r="E54" s="4">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
+        <v>9</v>
+      </c>
+      <c r="G54" s="4">
+        <v>7</v>
+      </c>
+      <c r="H54" s="3">
+        <v>6</v>
+      </c>
+      <c r="I54" s="4">
+        <v>6</v>
+      </c>
+      <c r="J54" s="3">
+        <v>7</v>
+      </c>
+      <c r="K54" s="4">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
+        <v>7</v>
+      </c>
+      <c r="M54" s="4">
+        <v>6</v>
+      </c>
+      <c r="N54" s="4">
+        <v>5</v>
+      </c>
       <c r="O54" s="4">
         <f>SUM(C54:M54)/123</f>
-        <v>0</v>
-      </c>
+        <v>0.56097560975609762</v>
+      </c>
+      <c r="Q54" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="R54" s="13"/>
+      <c r="S54" s="20">
+        <f>C54/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="T54" s="4">
+        <f t="shared" ref="T54:T63" si="50">D54/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="U54" s="3">
+        <f t="shared" ref="U54:U63" si="51">E54/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="V54" s="4">
+        <f t="shared" ref="V54:V63" si="52">F54/10</f>
+        <v>0.9</v>
+      </c>
+      <c r="W54" s="3">
+        <f t="shared" ref="W54:W63" si="53">G54/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="X54" s="4">
+        <f t="shared" ref="X54:X63" si="54">H54/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="Y54" s="3">
+        <f t="shared" ref="Y54:Y63" si="55">I54/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="Z54" s="4">
+        <f t="shared" ref="Z54:Z63" si="56">J54/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="AA54" s="3">
+        <f t="shared" ref="AA54:AA63" si="57">K54/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="AB54" s="4">
+        <f t="shared" ref="AB54:AB63" si="58">L54/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="AC54" s="3">
+        <f t="shared" ref="AC54:AC63" si="59">M54/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="AD54" s="4">
+        <f>N54/8</f>
+        <v>0.625</v>
+      </c>
+      <c r="AE54" s="24"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="5">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" s="5">
+        <v>4</v>
+      </c>
+      <c r="F55" s="5">
+        <v>6</v>
+      </c>
+      <c r="G55" s="5">
+        <v>6</v>
+      </c>
+      <c r="H55" s="5">
+        <v>5</v>
+      </c>
+      <c r="I55" s="5">
+        <v>4</v>
+      </c>
+      <c r="J55" s="5">
+        <v>6</v>
+      </c>
+      <c r="K55" s="5">
+        <v>4</v>
+      </c>
+      <c r="L55" s="5">
+        <v>5</v>
+      </c>
+      <c r="M55" s="5">
+        <v>4</v>
+      </c>
+      <c r="N55" s="5">
+        <v>4</v>
+      </c>
       <c r="O55" s="4">
-        <f t="shared" ref="O55:O63" si="24">SUM(C55:M55)/123</f>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="O55:O63" si="60">SUM(C55:M55)/123</f>
+        <v>0.41463414634146339</v>
+      </c>
+      <c r="Q55" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="R55" s="15"/>
+      <c r="S55" s="21">
+        <f t="shared" ref="S55:S63" si="61">C55/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="T55" s="5">
+        <f t="shared" si="50"/>
+        <v>0.2</v>
+      </c>
+      <c r="U55" s="24">
+        <f t="shared" si="51"/>
+        <v>0.4</v>
+      </c>
+      <c r="V55" s="5">
+        <f t="shared" si="52"/>
+        <v>0.6</v>
+      </c>
+      <c r="W55" s="24">
+        <f t="shared" si="53"/>
+        <v>0.6</v>
+      </c>
+      <c r="X55" s="5">
+        <f t="shared" si="54"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y55" s="24">
+        <f t="shared" si="55"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z55" s="5">
+        <f t="shared" si="56"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA55" s="24">
+        <f t="shared" si="57"/>
+        <v>0.4</v>
+      </c>
+      <c r="AB55" s="5">
+        <f t="shared" si="58"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC55" s="24">
+        <f t="shared" si="59"/>
+        <v>0.4</v>
+      </c>
+      <c r="AD55" s="5">
+        <f t="shared" ref="AD55:AD63" si="62">N55/8</f>
+        <v>0.5</v>
+      </c>
+      <c r="AE55" s="24"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="5">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56" s="5">
+        <v>7</v>
+      </c>
+      <c r="F56" s="5">
+        <v>9</v>
+      </c>
+      <c r="G56" s="5">
+        <v>5</v>
+      </c>
+      <c r="H56" s="5">
+        <v>7</v>
+      </c>
+      <c r="I56" s="5">
+        <v>8</v>
+      </c>
+      <c r="J56" s="5">
+        <v>9</v>
+      </c>
+      <c r="K56" s="5">
+        <v>5</v>
+      </c>
+      <c r="L56" s="5">
+        <v>7</v>
+      </c>
+      <c r="M56" s="5">
+        <v>9</v>
+      </c>
+      <c r="N56" s="5">
+        <v>6</v>
+      </c>
       <c r="O56" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="60"/>
+        <v>0.65040650406504064</v>
+      </c>
+      <c r="Q56" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R56" s="15"/>
+      <c r="S56" s="21">
+        <f t="shared" si="61"/>
+        <v>0.8</v>
+      </c>
+      <c r="T56" s="5">
+        <f t="shared" si="50"/>
+        <v>0.6</v>
+      </c>
+      <c r="U56" s="24">
+        <f t="shared" si="51"/>
+        <v>0.7</v>
+      </c>
+      <c r="V56" s="5">
+        <f t="shared" si="52"/>
+        <v>0.9</v>
+      </c>
+      <c r="W56" s="24">
+        <f t="shared" si="53"/>
+        <v>0.5</v>
+      </c>
+      <c r="X56" s="5">
+        <f t="shared" si="54"/>
+        <v>0.7</v>
+      </c>
+      <c r="Y56" s="24">
+        <f t="shared" si="55"/>
+        <v>0.8</v>
+      </c>
+      <c r="Z56" s="5">
+        <f t="shared" si="56"/>
+        <v>0.9</v>
+      </c>
+      <c r="AA56" s="24">
+        <f t="shared" si="57"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB56" s="5">
+        <f t="shared" si="58"/>
+        <v>0.7</v>
+      </c>
+      <c r="AC56" s="24">
+        <f t="shared" si="59"/>
+        <v>0.9</v>
+      </c>
+      <c r="AD56" s="5">
+        <f t="shared" si="62"/>
+        <v>0.75</v>
+      </c>
+      <c r="AE56" s="24"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="5">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" s="5">
+        <v>6</v>
+      </c>
+      <c r="F57" s="5">
+        <v>9</v>
+      </c>
+      <c r="G57" s="5">
+        <v>8</v>
+      </c>
+      <c r="H57" s="5">
+        <v>8</v>
+      </c>
+      <c r="I57" s="5">
+        <v>8</v>
+      </c>
+      <c r="J57" s="5">
+        <v>9</v>
+      </c>
+      <c r="K57" s="5">
+        <v>6</v>
+      </c>
+      <c r="L57" s="5">
+        <v>8</v>
+      </c>
+      <c r="M57" s="5">
+        <v>7</v>
+      </c>
+      <c r="N57" s="5">
+        <v>7</v>
+      </c>
       <c r="O57" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="60"/>
+        <v>0.65853658536585369</v>
+      </c>
+      <c r="Q57" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R57" s="15"/>
+      <c r="S57" s="21">
+        <f t="shared" si="61"/>
+        <v>0.7</v>
+      </c>
+      <c r="T57" s="5">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="U57" s="24">
+        <f t="shared" si="51"/>
+        <v>0.6</v>
+      </c>
+      <c r="V57" s="5">
+        <f t="shared" si="52"/>
+        <v>0.9</v>
+      </c>
+      <c r="W57" s="24">
+        <f t="shared" si="53"/>
+        <v>0.8</v>
+      </c>
+      <c r="X57" s="5">
+        <f t="shared" si="54"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y57" s="24">
+        <f t="shared" si="55"/>
+        <v>0.8</v>
+      </c>
+      <c r="Z57" s="5">
+        <f t="shared" si="56"/>
+        <v>0.9</v>
+      </c>
+      <c r="AA57" s="24">
+        <f t="shared" si="57"/>
+        <v>0.6</v>
+      </c>
+      <c r="AB57" s="5">
+        <f t="shared" si="58"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC57" s="24">
+        <f t="shared" si="59"/>
+        <v>0.7</v>
+      </c>
+      <c r="AD57" s="5">
+        <f t="shared" si="62"/>
+        <v>0.875</v>
+      </c>
+      <c r="AE57" s="28"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="5">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" s="5">
+        <v>6</v>
+      </c>
+      <c r="F58" s="5">
+        <v>6</v>
+      </c>
+      <c r="G58" s="5">
+        <v>5</v>
+      </c>
+      <c r="H58" s="5">
+        <v>6</v>
+      </c>
+      <c r="I58" s="5">
+        <v>6</v>
+      </c>
+      <c r="J58" s="5">
+        <v>7</v>
+      </c>
+      <c r="K58" s="5">
+        <v>5</v>
+      </c>
+      <c r="L58" s="5">
+        <v>7</v>
+      </c>
+      <c r="M58" s="5">
+        <v>4</v>
+      </c>
+      <c r="N58" s="5">
+        <v>5</v>
+      </c>
       <c r="O58" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="60"/>
+        <v>0.48780487804878048</v>
+      </c>
+      <c r="Q58" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R58" s="15"/>
+      <c r="S58" s="21">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="T58" s="5">
+        <f t="shared" si="50"/>
+        <v>0.3</v>
+      </c>
+      <c r="U58" s="24">
+        <f t="shared" si="51"/>
+        <v>0.6</v>
+      </c>
+      <c r="V58" s="5">
+        <f t="shared" si="52"/>
+        <v>0.6</v>
+      </c>
+      <c r="W58" s="24">
+        <f t="shared" si="53"/>
+        <v>0.5</v>
+      </c>
+      <c r="X58" s="5">
+        <f t="shared" si="54"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y58" s="24">
+        <f t="shared" si="55"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z58" s="5">
+        <f t="shared" si="56"/>
+        <v>0.7</v>
+      </c>
+      <c r="AA58" s="24">
+        <f t="shared" si="57"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB58" s="5">
+        <f t="shared" si="58"/>
+        <v>0.7</v>
+      </c>
+      <c r="AC58" s="24">
+        <f t="shared" si="59"/>
+        <v>0.4</v>
+      </c>
+      <c r="AD58" s="5">
+        <f t="shared" si="62"/>
+        <v>0.625</v>
+      </c>
+      <c r="AE58" s="28"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="5">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" s="5">
+        <v>6</v>
+      </c>
+      <c r="F59" s="5">
+        <v>6</v>
+      </c>
+      <c r="G59" s="5">
+        <v>7</v>
+      </c>
+      <c r="H59" s="5">
+        <v>8</v>
+      </c>
+      <c r="I59" s="5">
+        <v>6</v>
+      </c>
+      <c r="J59" s="5">
+        <v>8</v>
+      </c>
+      <c r="K59" s="5">
+        <v>6</v>
+      </c>
+      <c r="L59" s="5">
+        <v>6</v>
+      </c>
+      <c r="M59" s="5">
+        <v>7</v>
+      </c>
+      <c r="N59" s="5">
+        <v>7</v>
+      </c>
       <c r="O59" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="60"/>
+        <v>0.5934959349593496</v>
+      </c>
+      <c r="Q59" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="R59" s="15"/>
+      <c r="S59" s="21">
+        <f t="shared" si="61"/>
+        <v>0.8</v>
+      </c>
+      <c r="T59" s="5">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="U59" s="24">
+        <f t="shared" si="51"/>
+        <v>0.6</v>
+      </c>
+      <c r="V59" s="5">
+        <f t="shared" si="52"/>
+        <v>0.6</v>
+      </c>
+      <c r="W59" s="24">
+        <f t="shared" si="53"/>
+        <v>0.7</v>
+      </c>
+      <c r="X59" s="5">
+        <f t="shared" si="54"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y59" s="24">
+        <f t="shared" si="55"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z59" s="5">
+        <f t="shared" si="56"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA59" s="24">
+        <f t="shared" si="57"/>
+        <v>0.6</v>
+      </c>
+      <c r="AB59" s="5">
+        <f t="shared" si="58"/>
+        <v>0.6</v>
+      </c>
+      <c r="AC59" s="24">
+        <f t="shared" si="59"/>
+        <v>0.7</v>
+      </c>
+      <c r="AD59" s="5">
+        <f t="shared" si="62"/>
+        <v>0.875</v>
+      </c>
+      <c r="AE59" s="28"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="5">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60" s="5">
+        <v>6</v>
+      </c>
+      <c r="F60" s="5">
+        <v>6</v>
+      </c>
+      <c r="G60" s="5">
+        <v>4</v>
+      </c>
+      <c r="H60" s="5">
+        <v>6</v>
+      </c>
+      <c r="I60" s="5">
+        <v>5</v>
+      </c>
+      <c r="J60" s="5">
+        <v>7</v>
+      </c>
+      <c r="K60" s="5">
+        <v>5</v>
+      </c>
+      <c r="L60" s="5">
+        <v>6</v>
+      </c>
+      <c r="M60" s="5">
+        <v>5</v>
+      </c>
+      <c r="N60" s="5">
+        <v>4</v>
+      </c>
       <c r="O60" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="60"/>
+        <v>0.47967479674796748</v>
+      </c>
+      <c r="Q60" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R60" s="15"/>
+      <c r="S60" s="21">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="T60" s="5">
+        <f t="shared" si="50"/>
+        <v>0.4</v>
+      </c>
+      <c r="U60" s="24">
+        <f t="shared" si="51"/>
+        <v>0.6</v>
+      </c>
+      <c r="V60" s="5">
+        <f t="shared" si="52"/>
+        <v>0.6</v>
+      </c>
+      <c r="W60" s="24">
+        <f t="shared" si="53"/>
+        <v>0.4</v>
+      </c>
+      <c r="X60" s="5">
+        <f t="shared" si="54"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y60" s="24">
+        <f t="shared" si="55"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z60" s="5">
+        <f t="shared" si="56"/>
+        <v>0.7</v>
+      </c>
+      <c r="AA60" s="24">
+        <f t="shared" si="57"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB60" s="5">
+        <f t="shared" si="58"/>
+        <v>0.6</v>
+      </c>
+      <c r="AC60" s="24">
+        <f t="shared" si="59"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD60" s="5">
+        <f t="shared" si="62"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE60" s="28"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="5">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" s="5">
+        <v>7</v>
+      </c>
+      <c r="F61" s="5">
+        <v>6</v>
+      </c>
+      <c r="G61" s="5">
+        <v>5</v>
+      </c>
+      <c r="H61" s="5">
+        <v>4</v>
+      </c>
+      <c r="I61" s="5">
+        <v>4</v>
+      </c>
+      <c r="J61" s="5">
+        <v>6</v>
+      </c>
+      <c r="K61" s="5">
+        <v>4</v>
+      </c>
+      <c r="L61" s="5">
+        <v>5</v>
+      </c>
+      <c r="M61" s="5">
+        <v>7</v>
+      </c>
+      <c r="N61" s="5">
+        <v>4</v>
+      </c>
       <c r="O61" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="60"/>
+        <v>0.44715447154471544</v>
+      </c>
+      <c r="Q61" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R61" s="15"/>
+      <c r="S61" s="21">
+        <f t="shared" si="61"/>
+        <v>0.5</v>
+      </c>
+      <c r="T61" s="5">
+        <f t="shared" si="50"/>
+        <v>0.2</v>
+      </c>
+      <c r="U61" s="24">
+        <f t="shared" si="51"/>
+        <v>0.7</v>
+      </c>
+      <c r="V61" s="5">
+        <f t="shared" si="52"/>
+        <v>0.6</v>
+      </c>
+      <c r="W61" s="24">
+        <f t="shared" si="53"/>
+        <v>0.5</v>
+      </c>
+      <c r="X61" s="5">
+        <f t="shared" si="54"/>
+        <v>0.4</v>
+      </c>
+      <c r="Y61" s="24">
+        <f t="shared" si="55"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z61" s="5">
+        <f t="shared" si="56"/>
+        <v>0.6</v>
+      </c>
+      <c r="AA61" s="24">
+        <f t="shared" si="57"/>
+        <v>0.4</v>
+      </c>
+      <c r="AB61" s="5">
+        <f t="shared" si="58"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC61" s="24">
+        <f t="shared" si="59"/>
+        <v>0.7</v>
+      </c>
+      <c r="AD61" s="5">
+        <f t="shared" si="62"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE61" s="28"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="5">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" s="5">
+        <v>8</v>
+      </c>
+      <c r="F62" s="5">
+        <v>8</v>
+      </c>
+      <c r="G62" s="5">
+        <v>8</v>
+      </c>
+      <c r="H62" s="5">
+        <v>8</v>
+      </c>
+      <c r="I62" s="5">
+        <v>6</v>
+      </c>
+      <c r="J62" s="5">
+        <v>9</v>
+      </c>
+      <c r="K62" s="5">
+        <v>8</v>
+      </c>
+      <c r="L62" s="5">
+        <v>7</v>
+      </c>
+      <c r="M62" s="5">
+        <v>9</v>
+      </c>
+      <c r="N62" s="5">
+        <v>7</v>
+      </c>
       <c r="O62" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="60"/>
+        <v>0.68292682926829273</v>
+      </c>
+      <c r="Q62" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R62" s="15"/>
+      <c r="S62" s="21">
+        <f t="shared" si="61"/>
+        <v>0.9</v>
+      </c>
+      <c r="T62" s="5">
+        <f t="shared" si="50"/>
+        <v>0.4</v>
+      </c>
+      <c r="U62" s="24">
+        <f t="shared" si="51"/>
+        <v>0.8</v>
+      </c>
+      <c r="V62" s="5">
+        <f t="shared" si="52"/>
+        <v>0.8</v>
+      </c>
+      <c r="W62" s="24">
+        <f t="shared" si="53"/>
+        <v>0.8</v>
+      </c>
+      <c r="X62" s="5">
+        <f t="shared" si="54"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y62" s="24">
+        <f t="shared" si="55"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z62" s="5">
+        <f t="shared" si="56"/>
+        <v>0.9</v>
+      </c>
+      <c r="AA62" s="24">
+        <f t="shared" si="57"/>
+        <v>0.8</v>
+      </c>
+      <c r="AB62" s="5">
+        <f t="shared" si="58"/>
+        <v>0.7</v>
+      </c>
+      <c r="AC62" s="24">
+        <f t="shared" si="59"/>
+        <v>0.9</v>
+      </c>
+      <c r="AD62" s="5">
+        <f t="shared" si="62"/>
+        <v>0.875</v>
+      </c>
+      <c r="AE62" s="28"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="5">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63" s="5">
+        <v>6</v>
+      </c>
+      <c r="F63" s="5">
+        <v>7</v>
+      </c>
+      <c r="G63" s="5">
+        <v>8</v>
+      </c>
+      <c r="H63" s="5">
+        <v>6</v>
+      </c>
+      <c r="I63" s="5">
+        <v>7</v>
+      </c>
+      <c r="J63" s="5">
+        <v>8</v>
+      </c>
+      <c r="K63" s="5">
+        <v>5</v>
+      </c>
+      <c r="L63" s="5">
+        <v>8</v>
+      </c>
+      <c r="M63" s="5">
+        <v>7</v>
+      </c>
+      <c r="N63" s="5">
+        <v>5</v>
+      </c>
       <c r="O63" s="4">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="60"/>
+        <v>0.58536585365853655</v>
+      </c>
+      <c r="Q63" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R63" s="26"/>
+      <c r="S63" s="22">
+        <f t="shared" si="61"/>
+        <v>0.6</v>
+      </c>
+      <c r="T63" s="6">
+        <f t="shared" si="50"/>
+        <v>0.4</v>
+      </c>
+      <c r="U63" s="27">
+        <f t="shared" si="51"/>
+        <v>0.6</v>
+      </c>
+      <c r="V63" s="6">
+        <f t="shared" si="52"/>
+        <v>0.7</v>
+      </c>
+      <c r="W63" s="27">
+        <f t="shared" si="53"/>
+        <v>0.8</v>
+      </c>
+      <c r="X63" s="6">
+        <f t="shared" si="54"/>
+        <v>0.6</v>
+      </c>
+      <c r="Y63" s="27">
+        <f t="shared" si="55"/>
+        <v>0.7</v>
+      </c>
+      <c r="Z63" s="6">
+        <f t="shared" si="56"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA63" s="27">
+        <f t="shared" si="57"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB63" s="6">
+        <f t="shared" si="58"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC63" s="27">
+        <f t="shared" si="59"/>
+        <v>0.7</v>
+      </c>
+      <c r="AD63" s="6">
+        <f t="shared" si="62"/>
+        <v>0.625</v>
+      </c>
+      <c r="AE63" s="28"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B64" s="17"/>
       <c r="C64" s="7">
         <f>SUM(C54:C63)/100</f>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="D64" s="7">
-        <f t="shared" ref="D64" si="25">SUM(D54:D63)/100</f>
-        <v>0</v>
+        <f t="shared" ref="D64" si="63">SUM(D54:D63)/100</f>
+        <v>0.39</v>
       </c>
       <c r="E64" s="7">
-        <f t="shared" ref="E64" si="26">SUM(E54:E63)/100</f>
-        <v>0</v>
+        <f t="shared" ref="E64" si="64">SUM(E54:E63)/100</f>
+        <v>0.61</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" ref="F64" si="27">SUM(F54:F63)/100</f>
-        <v>0</v>
+        <f t="shared" ref="F64" si="65">SUM(F54:F63)/100</f>
+        <v>0.72</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" ref="G64" si="28">SUM(G54:G63)/100</f>
-        <v>0</v>
+        <f t="shared" ref="G64" si="66">SUM(G54:G63)/100</f>
+        <v>0.63</v>
       </c>
       <c r="H64" s="7">
-        <f t="shared" ref="H64" si="29">SUM(H54:H63)/100</f>
-        <v>0</v>
+        <f t="shared" ref="H64" si="67">SUM(H54:H63)/100</f>
+        <v>0.64</v>
       </c>
       <c r="I64" s="7">
-        <f t="shared" ref="I64" si="30">SUM(I54:I63)/100</f>
-        <v>0</v>
+        <f t="shared" ref="I64" si="68">SUM(I54:I63)/100</f>
+        <v>0.6</v>
       </c>
       <c r="J64" s="7">
-        <f t="shared" ref="J64" si="31">SUM(J54:J63)/100</f>
-        <v>0</v>
+        <f t="shared" ref="J64" si="69">SUM(J54:J63)/100</f>
+        <v>0.76</v>
       </c>
       <c r="K64" s="7">
-        <f t="shared" ref="K64" si="32">SUM(K54:K63)/100</f>
-        <v>0</v>
+        <f t="shared" ref="K64" si="70">SUM(K54:K63)/100</f>
+        <v>0.53</v>
       </c>
       <c r="L64" s="7">
-        <f t="shared" ref="L64" si="33">SUM(L54:L63)/100</f>
-        <v>0</v>
+        <f t="shared" ref="L64" si="71">SUM(L54:L63)/100</f>
+        <v>0.66</v>
       </c>
       <c r="M64" s="7">
-        <f t="shared" ref="M64" si="34">SUM(M54:M63)/100</f>
-        <v>0</v>
+        <f t="shared" ref="M64" si="72">SUM(M54:M63)/100</f>
+        <v>0.65</v>
       </c>
       <c r="N64" s="7">
         <f>SUM(N54:N63)/80</f>
-        <v>0</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="O64" s="7">
-        <f>SUM(C54:M63)/1180</f>
-        <v>0</v>
-      </c>
+        <f>SUM(C54:N63)/1180</f>
+        <v>0.62542372881355934</v>
+      </c>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="24"/>
+      <c r="U64" s="24"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="24"/>
+      <c r="X64" s="24"/>
+      <c r="Y64" s="24"/>
+      <c r="Z64" s="24"/>
+      <c r="AA64" s="24"/>
+      <c r="AB64" s="24"/>
+      <c r="AC64" s="24"/>
+      <c r="AD64" s="24"/>
+      <c r="AE64" s="24"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="N65" s="4" t="s">
@@ -2103,10 +8305,25 @@
       </c>
       <c r="O65" s="7">
         <f>SUM(C54:M63)</f>
-        <v>0</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
+      <c r="V65" s="24"/>
+      <c r="W65" s="24"/>
+      <c r="X65" s="24"/>
+      <c r="Y65" s="24"/>
+      <c r="Z65" s="24"/>
+      <c r="AA65" s="24"/>
+      <c r="AB65" s="24"/>
+      <c r="AC65" s="24"/>
+      <c r="AD65" s="24"/>
+      <c r="AE65" s="24"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="N66" s="6" t="s">
@@ -2114,11 +8331,127 @@
       </c>
       <c r="O66" s="7">
         <f>SUM(-O65, 1180)</f>
-        <v>1180</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="24"/>
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="24"/>
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="24"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="24"/>
+      <c r="AE66" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="101">
+  <mergeCells count="202">
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="Q61:R61"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="W52:W53"/>
+    <mergeCell ref="X52:X53"/>
+    <mergeCell ref="Y52:Y53"/>
+    <mergeCell ref="Z52:Z53"/>
+    <mergeCell ref="AA52:AA53"/>
+    <mergeCell ref="AB52:AB53"/>
+    <mergeCell ref="AC52:AC53"/>
+    <mergeCell ref="AD52:AD53"/>
+    <mergeCell ref="AE52:AE53"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="S52:S53"/>
+    <mergeCell ref="T52:T53"/>
+    <mergeCell ref="U52:U53"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="AD36:AD37"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="X36:X37"/>
+    <mergeCell ref="Y36:Y37"/>
+    <mergeCell ref="Z36:Z37"/>
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="AB36:AB37"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="AA19:AA20"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AD3:AD4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="N19:N20"/>
     <mergeCell ref="N36:N37"/>
     <mergeCell ref="N52:N53"/>
@@ -2132,6 +8465,17 @@
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
     <mergeCell ref="O52:O53"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
@@ -2147,18 +8491,7 @@
     <mergeCell ref="F52:F53"/>
     <mergeCell ref="G52:G53"/>
     <mergeCell ref="H52:H53"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A51:C51"/>
     <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="J36:J37"/>
     <mergeCell ref="K36:K37"/>
@@ -2223,4 +8556,253 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554F57FF-8785-1140-BC4D-C950B95D3F7F}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="B1" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="B2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="46">
+        <v>0</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="34">
+        <v>2</v>
+      </c>
+      <c r="E5" s="47">
+        <v>2</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="44">
+        <v>0.3</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="34">
+        <v>3</v>
+      </c>
+      <c r="E6" s="47">
+        <v>1</v>
+      </c>
+      <c r="F6" s="24"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="44">
+        <v>0.4</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="34">
+        <v>9</v>
+      </c>
+      <c r="E7" s="47">
+        <v>13</v>
+      </c>
+      <c r="F7" s="24"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="34">
+        <v>17</v>
+      </c>
+      <c r="E8" s="47">
+        <v>23</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="44">
+        <v>0.6</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="34">
+        <v>31</v>
+      </c>
+      <c r="E9" s="47">
+        <v>28</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="44">
+        <v>0.7</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="34">
+        <v>30</v>
+      </c>
+      <c r="E10" s="47">
+        <v>23</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="34">
+        <v>18</v>
+      </c>
+      <c r="E11" s="47">
+        <v>18</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="34">
+        <v>7</v>
+      </c>
+      <c r="E12" s="47">
+        <v>12</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="45">
+        <v>1</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="38">
+        <v>3</v>
+      </c>
+      <c r="E13" s="48">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7947AB61-BABA-8048-8DFC-7EC6204DA0CA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Full VPOP Classification Summary.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Full VPOP Classification Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher/Documents/PTSD/NCDE Model/Classification Results/Augmented Data/Full VPOP Classification/By Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33414768-CB58-D746-8DC4-9D5EC31206B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B08921F-44CF-3341-BDDB-9596EE77C8E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="38400" windowHeight="20260" activeTab="2" xr2:uid="{064A12D9-DF30-0A45-B172-879C6B680B9E}"/>
+    <workbookView xWindow="-20" yWindow="520" windowWidth="38400" windowHeight="20260" activeTab="2" xr2:uid="{064A12D9-DF30-0A45-B172-879C6B680B9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -407,6 +407,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,58 +449,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1537,6 +1526,1243 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-894C-0B46-AC41-3BD851775938}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="803577456"/>
+        <c:axId val="803971360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="803577456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803971360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="803971360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803577456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Comparative Histogram - 10% Noise</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10% Noise - 100 Iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E292-0945-8168-B1456344DD71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10% Noise - 200 Iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E292-0945-8168-B1456344DD71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="803577456"/>
+        <c:axId val="803971360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="803577456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803971360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="803971360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803577456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Individual Histogram - 10% Noise (100 Iterations)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10% Noise - 100 Iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC86-3A4F-B638-C352B3339087}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="803577456"/>
+        <c:axId val="803971360"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="803577456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803971360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="803971360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803577456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Individual Histogram - 10% Noise (200 Iterations)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10% Noise - 200 Iterations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Histogram Data'!$A$4:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Histogram Data'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29B3-F84E-9A3F-BE15F7F94371}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1863,6 +3089,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2870,6 +4216,1515 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3481,6 +6336,120 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D58918-A7F5-F947-8AC4-4B78FA8B82DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A40185-D5E7-5240-9117-43EA56A44AE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2A0BF7-A500-484C-B081-A6BF54DF9228}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3788,8 +6757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF02A33-AEE7-C74D-B125-3664DD3F27B5}">
   <dimension ref="A1:AE66"/>
   <sheetViews>
-    <sheetView topLeftCell="J34" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="AD46" sqref="AD46"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3818,102 +6787,102 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:31" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="Q2" s="18" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="Q2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
     </row>
     <row r="3" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="Z3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AA3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AB3" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AC3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AD3" s="14" t="s">
+      <c r="AD3" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="10" t="s">
+      <c r="AE3" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3922,870 +6891,1106 @@
         <v>8</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
       <c r="Q4" t="s">
         <v>8</v>
       </c>
       <c r="R4" s="2"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="16"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="27"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="4">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3">
+        <v>8</v>
+      </c>
+      <c r="K5" s="4">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3">
+        <v>6</v>
+      </c>
+      <c r="M5" s="4">
+        <v>9</v>
+      </c>
+      <c r="N5" s="4">
+        <v>5</v>
+      </c>
       <c r="O5" s="4">
         <f>SUM(C5:M5)/123</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="12" t="s">
+        <v>0.6097560975609756</v>
+      </c>
+      <c r="Q5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="29"/>
-      <c r="S5" s="20">
+      <c r="R5" s="30"/>
+      <c r="S5" s="10">
         <f>C5/10</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" ref="T5:AC14" si="0">D5/10</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="W5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Y5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AD5" s="4">
         <f>N5/8</f>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="31">
+        <v>0.625</v>
+      </c>
+      <c r="AE5" s="14">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>6</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>6</v>
+      </c>
+      <c r="K6" s="5">
+        <v>4</v>
+      </c>
+      <c r="L6" s="5">
+        <v>4</v>
+      </c>
+      <c r="M6" s="5">
+        <v>4</v>
+      </c>
+      <c r="N6" s="5">
+        <v>4</v>
+      </c>
       <c r="O6" s="4">
         <f t="shared" ref="O6:O14" si="1">SUM(C6:M6)/123</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="14" t="s">
+        <v>0.4065040650406504</v>
+      </c>
+      <c r="Q6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="23"/>
-      <c r="S6" s="21">
+      <c r="R6" s="31"/>
+      <c r="S6" s="11">
         <f t="shared" ref="S6:S14" si="2">C6/10</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="T6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="V6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="Y6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="AA6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="AC6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD6" s="5">
         <f t="shared" ref="AD6:AD14" si="3">N6/8</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="AE6" s="14">
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="5">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5">
+        <v>7</v>
+      </c>
+      <c r="H7" s="5">
+        <v>7</v>
+      </c>
+      <c r="I7" s="5">
+        <v>7</v>
+      </c>
+      <c r="J7" s="5">
+        <v>9</v>
+      </c>
+      <c r="K7" s="5">
+        <v>6</v>
+      </c>
+      <c r="L7" s="5">
+        <v>7</v>
+      </c>
+      <c r="M7" s="5">
+        <v>8</v>
+      </c>
+      <c r="N7" s="5">
+        <v>7</v>
+      </c>
       <c r="O7" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="14" t="s">
+        <v>0.64227642276422769</v>
+      </c>
+      <c r="Q7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="23"/>
-      <c r="S7" s="21">
+      <c r="R7" s="31"/>
+      <c r="S7" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="V7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y7" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="Y7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Z7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="AA7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AB7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="AC7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD7" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="31">
+        <v>0.875</v>
+      </c>
+      <c r="AE7" s="14">
         <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="5">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5">
+        <v>8</v>
+      </c>
+      <c r="H8" s="5">
+        <v>8</v>
+      </c>
+      <c r="I8" s="5">
+        <v>9</v>
+      </c>
+      <c r="J8" s="5">
+        <v>9</v>
+      </c>
+      <c r="K8" s="5">
+        <v>7</v>
+      </c>
+      <c r="L8" s="5">
+        <v>6</v>
+      </c>
+      <c r="M8" s="5">
+        <v>6</v>
+      </c>
+      <c r="N8" s="5">
+        <v>7</v>
+      </c>
       <c r="O8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="14" t="s">
+        <v>0.67479674796747968</v>
+      </c>
+      <c r="Q8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="23"/>
-      <c r="S8" s="21">
+      <c r="R8" s="31"/>
+      <c r="S8" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="V8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="Y8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Z8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="AA8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AB8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="AC8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AD8" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE8" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="AE8" s="14">
         <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>6</v>
+      </c>
+      <c r="I9" s="5">
+        <v>6</v>
+      </c>
+      <c r="J9" s="5">
+        <v>7</v>
+      </c>
+      <c r="K9" s="5">
+        <v>5</v>
+      </c>
+      <c r="L9" s="5">
+        <v>6</v>
+      </c>
+      <c r="M9" s="5">
+        <v>5</v>
+      </c>
+      <c r="N9" s="5">
+        <v>3</v>
+      </c>
       <c r="O9" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="14" t="s">
+        <v>0.47967479674796748</v>
+      </c>
+      <c r="Q9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="23"/>
-      <c r="S9" s="21">
+      <c r="R9" s="31"/>
+      <c r="S9" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="V9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="Y9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Z9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="AA9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="AC9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD9" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="AE9" s="14">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5">
+        <v>7</v>
+      </c>
+      <c r="H10" s="5">
+        <v>7</v>
+      </c>
+      <c r="I10" s="5">
+        <v>6</v>
+      </c>
+      <c r="J10" s="5">
+        <v>8</v>
+      </c>
+      <c r="K10" s="5">
+        <v>6</v>
+      </c>
+      <c r="L10" s="5">
+        <v>7</v>
+      </c>
+      <c r="M10" s="5">
+        <v>6</v>
+      </c>
+      <c r="N10" s="5">
+        <v>6</v>
+      </c>
       <c r="O10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="14" t="s">
+        <v>0.5934959349593496</v>
+      </c>
+      <c r="Q10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="23"/>
-      <c r="S10" s="21">
+      <c r="R10" s="31"/>
+      <c r="S10" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Z10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="AA10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AB10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="AC10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AD10" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="32">
+        <v>0.75</v>
+      </c>
+      <c r="AE10" s="14">
         <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="5">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5">
+        <v>6</v>
+      </c>
+      <c r="G11" s="5">
+        <v>7</v>
+      </c>
+      <c r="H11" s="5">
+        <v>6</v>
+      </c>
+      <c r="I11" s="5">
+        <v>8</v>
+      </c>
+      <c r="J11" s="5">
+        <v>8</v>
+      </c>
+      <c r="K11" s="5">
+        <v>4</v>
+      </c>
+      <c r="L11" s="5">
+        <v>7</v>
+      </c>
+      <c r="M11" s="5">
+        <v>6</v>
+      </c>
+      <c r="N11" s="5">
+        <v>7</v>
+      </c>
       <c r="O11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="14" t="s">
+        <v>0.56910569105691056</v>
+      </c>
+      <c r="Q11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="23"/>
-      <c r="S11" s="21">
+      <c r="R11" s="31"/>
+      <c r="S11" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="T11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="V11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="Y11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="AA11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="AC11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AD11" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="AE11" s="14">
         <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5">
+        <v>6</v>
+      </c>
+      <c r="F12" s="5">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5">
+        <v>5</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3</v>
+      </c>
+      <c r="J12" s="5">
+        <v>6</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3</v>
+      </c>
+      <c r="L12" s="5">
+        <v>5</v>
+      </c>
+      <c r="M12" s="5">
+        <v>6</v>
+      </c>
+      <c r="N12" s="5">
+        <v>3</v>
+      </c>
       <c r="O12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="14" t="s">
+        <v>0.43089430894308944</v>
+      </c>
+      <c r="Q12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="23"/>
-      <c r="S12" s="21">
+      <c r="R12" s="31"/>
+      <c r="S12" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Z12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="AA12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AB12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AC12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AD12" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="32">
+        <v>0.375</v>
+      </c>
+      <c r="AE12" s="14">
         <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="5">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5">
+        <v>7</v>
+      </c>
+      <c r="H13" s="5">
+        <v>8</v>
+      </c>
+      <c r="I13" s="5">
+        <v>8</v>
+      </c>
+      <c r="J13" s="5">
+        <v>9</v>
+      </c>
+      <c r="K13" s="5">
+        <v>7</v>
+      </c>
+      <c r="L13" s="5">
+        <v>7</v>
+      </c>
+      <c r="M13" s="5">
+        <v>9</v>
+      </c>
+      <c r="N13" s="5">
+        <v>8</v>
+      </c>
       <c r="O13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="14" t="s">
+        <v>0.70731707317073167</v>
+      </c>
+      <c r="Q13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="R13" s="23"/>
-      <c r="S13" s="21">
+      <c r="R13" s="31"/>
+      <c r="S13" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="V13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="Y13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="AA13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AB13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="AC13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AD13" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="32">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="14">
         <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="5">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5">
+        <v>6</v>
+      </c>
+      <c r="F14" s="5">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5">
+        <v>6</v>
+      </c>
+      <c r="H14" s="5">
+        <v>6</v>
+      </c>
+      <c r="I14" s="5">
+        <v>5</v>
+      </c>
+      <c r="J14" s="5">
+        <v>7</v>
+      </c>
+      <c r="K14" s="5">
+        <v>5</v>
+      </c>
+      <c r="L14" s="5">
+        <v>6</v>
+      </c>
+      <c r="M14" s="5">
+        <v>6</v>
+      </c>
+      <c r="N14" s="5">
+        <v>5</v>
+      </c>
       <c r="O14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="19" t="s">
+        <v>0.53658536585365857</v>
+      </c>
+      <c r="Q14" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="R14" s="30"/>
-      <c r="S14" s="22">
+      <c r="R14" s="33"/>
+      <c r="S14" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="T14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="U14" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="W14" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="Y14" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="AA14" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="AC14" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AD14" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="AE14" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="7">
         <f>SUM(C5:C14)/100</f>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" ref="D15:M15" si="4">SUM(D5:D14)/100</f>
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="L15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="M15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="N15" s="7">
         <f>SUM(N5:N14)/80</f>
-        <v>0</v>
+        <v>0.6875</v>
       </c>
       <c r="O15" s="7">
-        <f>SUM(C5:M14)/1180</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
+        <f>SUM(C5:N14)/1180</f>
+        <v>0.63559322033898302</v>
+      </c>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
@@ -4794,24 +7999,11 @@
         <v>5</v>
       </c>
       <c r="O16" s="7">
-        <f>SUM(C5:M14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="Y16" s="24"/>
-      <c r="Z16" s="24"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
+        <f>SUM(C5:N14)</f>
+        <v>750</v>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
@@ -4821,971 +8013,1184 @@
       </c>
       <c r="O17" s="7">
         <f>SUM(-O16, 1180)</f>
-        <v>1180</v>
-      </c>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
+        <v>430</v>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:31" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="Q18" s="18" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="Q18" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
     </row>
     <row r="19" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O19" s="21" t="s">
         <v>0</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" t="s">
         <v>7</v>
       </c>
-      <c r="S19" s="10" t="s">
+      <c r="S19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="T19" s="16" t="s">
+      <c r="T19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="U19" s="10" t="s">
+      <c r="U19" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="V19" s="16" t="s">
+      <c r="V19" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="W19" s="10" t="s">
+      <c r="W19" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="X19" s="16" t="s">
+      <c r="X19" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Y19" s="10" t="s">
+      <c r="Y19" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Z19" s="16" t="s">
+      <c r="Z19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AA19" s="10" t="s">
+      <c r="AA19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AB19" s="16" t="s">
+      <c r="AB19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AC19" s="10" t="s">
+      <c r="AC19" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AD19" s="14" t="s">
+      <c r="AD19" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AE19" s="23"/>
+      <c r="AE19" s="31"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
       <c r="Q20" t="s">
         <v>8</v>
       </c>
       <c r="R20" s="2"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="19"/>
-      <c r="AE20" s="23"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="31"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="4">
+        <v>8</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3">
+        <v>9</v>
+      </c>
+      <c r="G21" s="4">
+        <v>6</v>
+      </c>
+      <c r="H21" s="3">
+        <v>7</v>
+      </c>
+      <c r="I21" s="4">
+        <v>7</v>
+      </c>
+      <c r="J21" s="3">
+        <v>9</v>
+      </c>
+      <c r="K21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
+        <v>6</v>
+      </c>
+      <c r="M21" s="4">
+        <v>7</v>
+      </c>
+      <c r="N21" s="4">
+        <v>5</v>
+      </c>
       <c r="O21" s="4">
         <f>SUM(C21:M21)/123</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="12" t="s">
+        <v>0.6097560975609756</v>
+      </c>
+      <c r="Q21" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="R21" s="13"/>
-      <c r="S21" s="20">
+      <c r="R21" s="24"/>
+      <c r="S21" s="10">
         <f>C21/10</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="T21" s="4">
         <f t="shared" ref="T21:T30" si="5">D21/10</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="U21" s="3">
         <f t="shared" ref="U21:U30" si="6">E21/10</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="V21" s="4">
         <f t="shared" ref="V21:V30" si="7">F21/10</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="W21" s="3">
         <f t="shared" ref="W21:W30" si="8">G21/10</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X21" s="4">
         <f t="shared" ref="X21:X30" si="9">H21/10</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Y21" s="3">
         <f t="shared" ref="Y21:Y30" si="10">I21/10</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Z21" s="4">
         <f t="shared" ref="Z21:Z30" si="11">J21/10</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AA21" s="3">
         <f t="shared" ref="AA21:AA30" si="12">K21/10</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB21" s="4">
         <f t="shared" ref="AB21:AB30" si="13">L21/10</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AC21" s="3">
         <f t="shared" ref="AC21:AC30" si="14">M21/10</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AD21" s="4">
         <f>N21/8</f>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="24"/>
+        <v>0.625</v>
+      </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="5">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4</v>
+      </c>
+      <c r="F22" s="5">
+        <v>5</v>
+      </c>
+      <c r="G22" s="5">
+        <v>6</v>
+      </c>
+      <c r="H22" s="5">
+        <v>5</v>
+      </c>
+      <c r="I22" s="5">
+        <v>5</v>
+      </c>
+      <c r="J22" s="5">
+        <v>6</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4</v>
+      </c>
+      <c r="L22" s="5">
+        <v>5</v>
+      </c>
+      <c r="M22" s="5">
+        <v>4</v>
+      </c>
+      <c r="N22" s="5">
+        <v>5</v>
+      </c>
       <c r="O22" s="4">
         <f t="shared" ref="O22:O30" si="15">SUM(C22:M22)/123</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="14" t="s">
+        <v>0.41463414634146339</v>
+      </c>
+      <c r="Q22" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="15"/>
-      <c r="S22" s="21">
+      <c r="R22" s="26"/>
+      <c r="S22" s="11">
         <f t="shared" ref="S22:S30" si="16">C22/10</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T22" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="V22" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="W22">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X22" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="Y22">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z22" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="AA22">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AB22" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AC22">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD22" s="5">
         <f t="shared" ref="AD22:AD30" si="17">N22/8</f>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="24"/>
+        <v>0.625</v>
+      </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="5">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5">
+        <v>7</v>
+      </c>
+      <c r="F23" s="5">
+        <v>8</v>
+      </c>
+      <c r="G23" s="5">
+        <v>6</v>
+      </c>
+      <c r="H23" s="5">
+        <v>7</v>
+      </c>
+      <c r="I23" s="5">
+        <v>8</v>
+      </c>
+      <c r="J23" s="5">
+        <v>9</v>
+      </c>
+      <c r="K23" s="5">
+        <v>6</v>
+      </c>
+      <c r="L23" s="5">
+        <v>7</v>
+      </c>
+      <c r="M23" s="5">
+        <v>7</v>
+      </c>
+      <c r="N23" s="5">
+        <v>7</v>
+      </c>
       <c r="O23" s="4">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="14" t="s">
+        <f>SUM(C23:M23)/123</f>
+        <v>0.63414634146341464</v>
+      </c>
+      <c r="Q23" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="R23" s="15"/>
-      <c r="S23" s="21">
-        <f t="shared" si="16"/>
-        <v>0</v>
+      <c r="R23" s="26"/>
+      <c r="S23" s="11">
+        <f>C23/10</f>
+        <v>0.8</v>
       </c>
       <c r="T23" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="V23" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="W23">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X23" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="Y23">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z23" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="AA23">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AB23" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="AC23">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AD23" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="24"/>
+        <v>0.875</v>
+      </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="5">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24" s="5">
+        <v>8</v>
+      </c>
+      <c r="F24" s="5">
+        <v>10</v>
+      </c>
+      <c r="G24" s="5">
+        <v>6</v>
+      </c>
+      <c r="H24" s="5">
+        <v>7</v>
+      </c>
+      <c r="I24" s="5">
+        <v>7</v>
+      </c>
+      <c r="J24" s="5">
+        <v>10</v>
+      </c>
+      <c r="K24" s="5">
+        <v>5</v>
+      </c>
+      <c r="L24" s="5">
+        <v>7</v>
+      </c>
+      <c r="M24" s="5">
+        <v>8</v>
+      </c>
+      <c r="N24" s="5">
+        <v>7</v>
+      </c>
       <c r="O24" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="14" t="s">
+        <v>0.65853658536585369</v>
+      </c>
+      <c r="Q24" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="R24" s="15"/>
-      <c r="S24" s="21">
-        <f t="shared" si="16"/>
-        <v>0</v>
+      <c r="R24" s="26"/>
+      <c r="S24" s="11">
+        <f>C24/10</f>
+        <v>0.8</v>
       </c>
       <c r="T24" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="V24" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="24">
+        <v>1</v>
+      </c>
+      <c r="W24">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X24" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="Y24">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Z24" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB24" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="AC24">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD24" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="28"/>
+        <v>0.875</v>
+      </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="5">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" s="5">
+        <v>5</v>
+      </c>
+      <c r="F25" s="5">
+        <v>6</v>
+      </c>
+      <c r="G25" s="5">
+        <v>5</v>
+      </c>
+      <c r="H25" s="5">
+        <v>6</v>
+      </c>
+      <c r="I25" s="5">
+        <v>6</v>
+      </c>
+      <c r="J25" s="5">
+        <v>7</v>
+      </c>
+      <c r="K25" s="5">
+        <v>5</v>
+      </c>
+      <c r="L25" s="5">
+        <v>7</v>
+      </c>
+      <c r="M25" s="5">
+        <v>5</v>
+      </c>
+      <c r="N25" s="5">
+        <v>5</v>
+      </c>
       <c r="O25" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="14" t="s">
+        <v>0.49593495934959347</v>
+      </c>
+      <c r="Q25" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="R25" s="15"/>
-      <c r="S25" s="21">
+      <c r="R25" s="26"/>
+      <c r="S25" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T25" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V25" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="W25">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X25" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="Y25">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Z25" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="AA25">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB25" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="AC25">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD25" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="28"/>
+        <v>0.625</v>
+      </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="5">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" s="5">
+        <v>7</v>
+      </c>
+      <c r="F26" s="5">
+        <v>7</v>
+      </c>
+      <c r="G26" s="5">
+        <v>7</v>
+      </c>
+      <c r="H26" s="5">
+        <v>6</v>
+      </c>
+      <c r="I26" s="5">
+        <v>6</v>
+      </c>
+      <c r="J26" s="5">
+        <v>8</v>
+      </c>
+      <c r="K26" s="5">
+        <v>5</v>
+      </c>
+      <c r="L26" s="5">
+        <v>7</v>
+      </c>
+      <c r="M26" s="5">
+        <v>6</v>
+      </c>
+      <c r="N26" s="5">
+        <v>7</v>
+      </c>
       <c r="O26" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="14" t="s">
+        <v>0.58536585365853655</v>
+      </c>
+      <c r="Q26" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="R26" s="15"/>
-      <c r="S26" s="21">
+      <c r="R26" s="26"/>
+      <c r="S26" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="T26" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="V26" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="W26">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X26" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="Y26">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Z26" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="AA26">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB26" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="AC26">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AD26" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="28"/>
+        <v>0.875</v>
+      </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="5">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5">
+        <v>7</v>
+      </c>
+      <c r="F27" s="5">
+        <v>7</v>
+      </c>
+      <c r="G27" s="5">
+        <v>5</v>
+      </c>
+      <c r="H27" s="5">
+        <v>7</v>
+      </c>
+      <c r="I27" s="5">
+        <v>5</v>
+      </c>
+      <c r="J27" s="5">
+        <v>7</v>
+      </c>
+      <c r="K27" s="5">
+        <v>5</v>
+      </c>
+      <c r="L27" s="5">
+        <v>6</v>
+      </c>
+      <c r="M27" s="5">
+        <v>6</v>
+      </c>
+      <c r="N27" s="5">
+        <v>7</v>
+      </c>
       <c r="O27" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="14" t="s">
+        <v>0.52032520325203258</v>
+      </c>
+      <c r="Q27" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="R27" s="15"/>
-      <c r="S27" s="21">
+      <c r="R27" s="26"/>
+      <c r="S27" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T27" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="U27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="V27" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="W27">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X27" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="Y27">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z27" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="AA27">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB27" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="AC27">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AD27" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="28"/>
+        <v>0.875</v>
+      </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5">
+        <v>6</v>
+      </c>
+      <c r="F28" s="5">
+        <v>6</v>
+      </c>
+      <c r="G28" s="5">
+        <v>5</v>
+      </c>
+      <c r="H28" s="5">
+        <v>4</v>
+      </c>
+      <c r="I28" s="5">
+        <v>4</v>
+      </c>
+      <c r="J28" s="5">
+        <v>6</v>
+      </c>
+      <c r="K28" s="5">
+        <v>5</v>
+      </c>
+      <c r="L28" s="5">
+        <v>5</v>
+      </c>
+      <c r="M28" s="5">
+        <v>7</v>
+      </c>
+      <c r="N28" s="5">
+        <v>3</v>
+      </c>
       <c r="O28" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="14" t="s">
+        <v>0.45528455284552843</v>
+      </c>
+      <c r="Q28" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="R28" s="15"/>
-      <c r="S28" s="21">
+      <c r="R28" s="26"/>
+      <c r="S28" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T28" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="U28">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V28" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="W28">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X28" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="Y28">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z28" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="AA28">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB28" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="AC28">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AD28" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="28"/>
+        <v>0.375</v>
+      </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="5">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5">
+        <v>7</v>
+      </c>
+      <c r="F29" s="5">
+        <v>9</v>
+      </c>
+      <c r="G29" s="5">
+        <v>7</v>
+      </c>
+      <c r="H29" s="5">
+        <v>7</v>
+      </c>
+      <c r="I29" s="5">
+        <v>8</v>
+      </c>
+      <c r="J29" s="5">
+        <v>10</v>
+      </c>
+      <c r="K29" s="5">
+        <v>5</v>
+      </c>
+      <c r="L29" s="5">
+        <v>7</v>
+      </c>
+      <c r="M29" s="5">
+        <v>10</v>
+      </c>
+      <c r="N29" s="5">
+        <v>6</v>
+      </c>
       <c r="O29" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="14" t="s">
+        <v>0.69105691056910568</v>
+      </c>
+      <c r="Q29" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="R29" s="15"/>
-      <c r="S29" s="21">
+      <c r="R29" s="26"/>
+      <c r="S29" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T29" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="U29">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="V29" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="W29">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X29" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="Y29">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z29" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA29">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AB29" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="24">
+        <v>0.7</v>
+      </c>
+      <c r="AC29">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="28"/>
+        <v>0.75</v>
+      </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="5">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30" s="5">
+        <v>6</v>
+      </c>
+      <c r="F30" s="5">
+        <v>8</v>
+      </c>
+      <c r="G30" s="5">
+        <v>7</v>
+      </c>
+      <c r="H30" s="5">
+        <v>7</v>
+      </c>
+      <c r="I30" s="5">
+        <v>6</v>
+      </c>
+      <c r="J30" s="5">
+        <v>8</v>
+      </c>
+      <c r="K30" s="5">
+        <v>6</v>
+      </c>
+      <c r="L30" s="5">
+        <v>6</v>
+      </c>
+      <c r="M30" s="5">
+        <v>7</v>
+      </c>
+      <c r="N30" s="5">
+        <v>5</v>
+      </c>
       <c r="O30" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="19" t="s">
+        <v>0.5934959349593496</v>
+      </c>
+      <c r="Q30" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="R30" s="26"/>
-      <c r="S30" s="22">
+      <c r="R30" s="34"/>
+      <c r="S30" s="12">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="T30" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="U30" s="13">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V30" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="W30" s="13">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X30" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="Y30" s="13">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Z30" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="AA30" s="13">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AB30" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="AC30" s="13">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AD30" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="28"/>
+        <v>0.625</v>
+      </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="17"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="7">
         <f>SUM(C21:C30)/100</f>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="D31" s="7">
         <f t="shared" ref="D31" si="18">SUM(D21:D30)/100</f>
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="E31" s="7">
         <f t="shared" ref="E31" si="19">SUM(E21:E30)/100</f>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" ref="F31" si="20">SUM(F21:F30)/100</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G31" s="7">
         <f t="shared" ref="G31" si="21">SUM(G21:G30)/100</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H31" s="7">
         <f t="shared" ref="H31" si="22">SUM(H21:H30)/100</f>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="I31" s="7">
         <f t="shared" ref="I31" si="23">SUM(I21:I30)/100</f>
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" ref="J31" si="24">SUM(J21:J30)/100</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" ref="K31" si="25">SUM(K21:K30)/100</f>
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="L31" s="7">
         <f t="shared" ref="L31" si="26">SUM(L21:L30)/100</f>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="M31" s="7">
         <f t="shared" ref="M31" si="27">SUM(M21:M30)/100</f>
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="N31" s="7">
         <f>SUM(N21:N30)/80</f>
-        <v>0</v>
+        <v>0.71250000000000002</v>
       </c>
       <c r="O31" s="7">
-        <f>SUM(C21:M30)/1180</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="24"/>
-      <c r="Z31" s="24"/>
-      <c r="AA31" s="24"/>
-      <c r="AB31" s="24"/>
-      <c r="AC31" s="24"/>
-      <c r="AD31" s="24"/>
-      <c r="AE31" s="24"/>
+        <f>SUM(C21:N30)/1180</f>
+        <v>0.63813559322033897</v>
+      </c>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
@@ -5794,24 +9199,11 @@
         <v>5</v>
       </c>
       <c r="O32" s="7">
-        <f>SUM(C21:M30)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="24"/>
-      <c r="Z32" s="24"/>
-      <c r="AA32" s="24"/>
-      <c r="AB32" s="24"/>
-      <c r="AC32" s="24"/>
-      <c r="AD32" s="24"/>
-      <c r="AE32" s="24"/>
+        <f>SUM(C21:N30)</f>
+        <v>753</v>
+      </c>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
@@ -5821,175 +9213,162 @@
       </c>
       <c r="O33" s="7">
         <f>SUM(-O32, 1180)</f>
-        <v>1180</v>
-      </c>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="24"/>
-      <c r="AA33" s="24"/>
-      <c r="AB33" s="24"/>
-      <c r="AC33" s="24"/>
-      <c r="AD33" s="24"/>
-      <c r="AE33" s="24"/>
+        <v>427</v>
+      </c>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
     </row>
     <row r="34" spans="1:31" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="Q34" s="18" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="Q34" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
     </row>
     <row r="35" spans="1:31" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="Q35" s="18" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="Q35" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
     </row>
     <row r="36" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="G36" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="10" t="s">
+      <c r="I36" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J36" s="16" t="s">
+      <c r="J36" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="L36" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="M36" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N36" s="16" t="s">
+      <c r="N36" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O36" s="10" t="s">
+      <c r="O36" s="21" t="s">
         <v>0</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" t="s">
         <v>7</v>
       </c>
-      <c r="S36" s="10" t="s">
+      <c r="S36" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="T36" s="16" t="s">
+      <c r="T36" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="U36" s="10" t="s">
+      <c r="U36" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="V36" s="16" t="s">
+      <c r="V36" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="W36" s="10" t="s">
+      <c r="W36" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="X36" s="16" t="s">
+      <c r="X36" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Y36" s="10" t="s">
+      <c r="Y36" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Z36" s="16" t="s">
+      <c r="Z36" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AA36" s="10" t="s">
+      <c r="AA36" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AB36" s="16" t="s">
+      <c r="AB36" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AC36" s="10" t="s">
+      <c r="AC36" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AD36" s="14" t="s">
+      <c r="AD36" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AE36" s="23"/>
+      <c r="AE36" s="31"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="2"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
       <c r="Q37" t="s">
         <v>8</v>
       </c>
       <c r="R37" s="2"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="19"/>
-      <c r="AE37" s="23"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="31"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="4">
         <v>7</v>
       </c>
@@ -6030,11 +9409,11 @@
         <f>SUM(C38:M38)/123</f>
         <v>0.60162601626016265</v>
       </c>
-      <c r="Q38" s="12" t="s">
+      <c r="Q38" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="R38" s="13"/>
-      <c r="S38" s="20">
+      <c r="R38" s="24"/>
+      <c r="S38" s="10">
         <f>C38/10</f>
         <v>0.7</v>
       </c>
@@ -6082,13 +9461,12 @@
         <f>N38/8</f>
         <v>0.75</v>
       </c>
-      <c r="AE38" s="24"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="15"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="5">
         <v>5</v>
       </c>
@@ -6129,11 +9507,11 @@
         <f t="shared" ref="O39:O47" si="38">SUM(C39:M39)/123</f>
         <v>0.4065040650406504</v>
       </c>
-      <c r="Q39" s="14" t="s">
+      <c r="Q39" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R39" s="15"/>
-      <c r="S39" s="21">
+      <c r="R39" s="26"/>
+      <c r="S39" s="11">
         <f t="shared" ref="S39:S47" si="39">C39/10</f>
         <v>0.5</v>
       </c>
@@ -6141,7 +9519,7 @@
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="U39" s="24">
+      <c r="U39">
         <f t="shared" si="29"/>
         <v>0.4</v>
       </c>
@@ -6149,7 +9527,7 @@
         <f t="shared" si="30"/>
         <v>0.6</v>
       </c>
-      <c r="W39" s="24">
+      <c r="W39">
         <f t="shared" si="31"/>
         <v>0.6</v>
       </c>
@@ -6157,7 +9535,7 @@
         <f t="shared" si="32"/>
         <v>0.5</v>
       </c>
-      <c r="Y39" s="24">
+      <c r="Y39">
         <f t="shared" si="33"/>
         <v>0.4</v>
       </c>
@@ -6165,7 +9543,7 @@
         <f t="shared" si="34"/>
         <v>0.6</v>
       </c>
-      <c r="AA39" s="24">
+      <c r="AA39">
         <f t="shared" si="35"/>
         <v>0.4</v>
       </c>
@@ -6173,7 +9551,7 @@
         <f t="shared" si="36"/>
         <v>0.4</v>
       </c>
-      <c r="AC39" s="24">
+      <c r="AC39">
         <f t="shared" si="37"/>
         <v>0.4</v>
       </c>
@@ -6181,13 +9559,12 @@
         <f t="shared" ref="AD39:AD47" si="40">N39/8</f>
         <v>0.5</v>
       </c>
-      <c r="AE39" s="24"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="15"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="5">
         <v>7</v>
       </c>
@@ -6228,11 +9605,11 @@
         <f t="shared" si="38"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Q40" s="14" t="s">
+      <c r="Q40" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="R40" s="15"/>
-      <c r="S40" s="21">
+      <c r="R40" s="26"/>
+      <c r="S40" s="11">
         <f t="shared" si="39"/>
         <v>0.7</v>
       </c>
@@ -6240,7 +9617,7 @@
         <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
-      <c r="U40" s="24">
+      <c r="U40">
         <f t="shared" si="29"/>
         <v>0.7</v>
       </c>
@@ -6248,7 +9625,7 @@
         <f t="shared" si="30"/>
         <v>0.8</v>
       </c>
-      <c r="W40" s="24">
+      <c r="W40">
         <f t="shared" si="31"/>
         <v>0.7</v>
       </c>
@@ -6256,7 +9633,7 @@
         <f t="shared" si="32"/>
         <v>0.7</v>
       </c>
-      <c r="Y40" s="24">
+      <c r="Y40">
         <f t="shared" si="33"/>
         <v>0.8</v>
       </c>
@@ -6264,7 +9641,7 @@
         <f t="shared" si="34"/>
         <v>0.9</v>
       </c>
-      <c r="AA40" s="24">
+      <c r="AA40">
         <f t="shared" si="35"/>
         <v>0.8</v>
       </c>
@@ -6272,7 +9649,7 @@
         <f t="shared" si="36"/>
         <v>0.6</v>
       </c>
-      <c r="AC40" s="24">
+      <c r="AC40">
         <f t="shared" si="37"/>
         <v>0.9</v>
       </c>
@@ -6280,13 +9657,12 @@
         <f t="shared" si="40"/>
         <v>0.75</v>
       </c>
-      <c r="AE40" s="24"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="15"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="5">
         <v>7</v>
       </c>
@@ -6327,11 +9703,11 @@
         <f t="shared" si="38"/>
         <v>0.69918699186991873</v>
       </c>
-      <c r="Q41" s="14" t="s">
+      <c r="Q41" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="R41" s="15"/>
-      <c r="S41" s="21">
+      <c r="R41" s="26"/>
+      <c r="S41" s="11">
         <f t="shared" si="39"/>
         <v>0.7</v>
       </c>
@@ -6339,7 +9715,7 @@
         <f t="shared" si="28"/>
         <v>0.6</v>
       </c>
-      <c r="U41" s="24">
+      <c r="U41">
         <f t="shared" si="29"/>
         <v>0.7</v>
       </c>
@@ -6347,7 +9723,7 @@
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="W41" s="24">
+      <c r="W41">
         <f t="shared" si="31"/>
         <v>0.7</v>
       </c>
@@ -6355,7 +9731,7 @@
         <f t="shared" si="32"/>
         <v>0.7</v>
       </c>
-      <c r="Y41" s="24">
+      <c r="Y41">
         <f t="shared" si="33"/>
         <v>0.8</v>
       </c>
@@ -6363,7 +9739,7 @@
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="AA41" s="24">
+      <c r="AA41">
         <f t="shared" si="35"/>
         <v>0.7</v>
       </c>
@@ -6371,7 +9747,7 @@
         <f t="shared" si="36"/>
         <v>0.8</v>
       </c>
-      <c r="AC41" s="24">
+      <c r="AC41">
         <f t="shared" si="37"/>
         <v>0.9</v>
       </c>
@@ -6379,13 +9755,12 @@
         <f t="shared" si="40"/>
         <v>0.875</v>
       </c>
-      <c r="AE41" s="28"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="15"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="5">
         <v>5</v>
       </c>
@@ -6426,11 +9801,11 @@
         <f t="shared" si="38"/>
         <v>0.51219512195121952</v>
       </c>
-      <c r="Q42" s="14" t="s">
+      <c r="Q42" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="R42" s="15"/>
-      <c r="S42" s="21">
+      <c r="R42" s="26"/>
+      <c r="S42" s="11">
         <f t="shared" si="39"/>
         <v>0.5</v>
       </c>
@@ -6438,7 +9813,7 @@
         <f t="shared" si="28"/>
         <v>0.3</v>
       </c>
-      <c r="U42" s="24">
+      <c r="U42">
         <f t="shared" si="29"/>
         <v>0.6</v>
       </c>
@@ -6446,7 +9821,7 @@
         <f t="shared" si="30"/>
         <v>0.6</v>
       </c>
-      <c r="W42" s="24">
+      <c r="W42">
         <f t="shared" si="31"/>
         <v>0.5</v>
       </c>
@@ -6454,7 +9829,7 @@
         <f t="shared" si="32"/>
         <v>0.6</v>
       </c>
-      <c r="Y42" s="24">
+      <c r="Y42">
         <f t="shared" si="33"/>
         <v>0.6</v>
       </c>
@@ -6462,7 +9837,7 @@
         <f t="shared" si="34"/>
         <v>0.7</v>
       </c>
-      <c r="AA42" s="24">
+      <c r="AA42">
         <f t="shared" si="35"/>
         <v>0.6</v>
       </c>
@@ -6470,7 +9845,7 @@
         <f t="shared" si="36"/>
         <v>0.6</v>
       </c>
-      <c r="AC42" s="24">
+      <c r="AC42">
         <f t="shared" si="37"/>
         <v>0.7</v>
       </c>
@@ -6478,13 +9853,12 @@
         <f t="shared" si="40"/>
         <v>0.5</v>
       </c>
-      <c r="AE42" s="28"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="15"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="5">
         <v>7</v>
       </c>
@@ -6525,11 +9899,11 @@
         <f t="shared" si="38"/>
         <v>0.61788617886178865</v>
       </c>
-      <c r="Q43" s="14" t="s">
+      <c r="Q43" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="R43" s="15"/>
-      <c r="S43" s="21">
+      <c r="R43" s="26"/>
+      <c r="S43" s="11">
         <f t="shared" si="39"/>
         <v>0.7</v>
       </c>
@@ -6537,7 +9911,7 @@
         <f t="shared" si="28"/>
         <v>0.5</v>
       </c>
-      <c r="U43" s="24">
+      <c r="U43">
         <f t="shared" si="29"/>
         <v>0.6</v>
       </c>
@@ -6545,7 +9919,7 @@
         <f t="shared" si="30"/>
         <v>0.8</v>
       </c>
-      <c r="W43" s="24">
+      <c r="W43">
         <f t="shared" si="31"/>
         <v>0.7</v>
       </c>
@@ -6553,7 +9927,7 @@
         <f t="shared" si="32"/>
         <v>0.8</v>
       </c>
-      <c r="Y43" s="24">
+      <c r="Y43">
         <f t="shared" si="33"/>
         <v>0.6</v>
       </c>
@@ -6561,7 +9935,7 @@
         <f t="shared" si="34"/>
         <v>0.9</v>
       </c>
-      <c r="AA43" s="24">
+      <c r="AA43">
         <f t="shared" si="35"/>
         <v>0.7</v>
       </c>
@@ -6569,7 +9943,7 @@
         <f t="shared" si="36"/>
         <v>0.7</v>
       </c>
-      <c r="AC43" s="24">
+      <c r="AC43">
         <f t="shared" si="37"/>
         <v>0.6</v>
       </c>
@@ -6577,13 +9951,12 @@
         <f t="shared" si="40"/>
         <v>0.875</v>
       </c>
-      <c r="AE43" s="28"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="15"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="5">
         <v>6</v>
       </c>
@@ -6624,11 +9997,11 @@
         <f t="shared" si="38"/>
         <v>0.52845528455284552</v>
       </c>
-      <c r="Q44" s="14" t="s">
+      <c r="Q44" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="R44" s="15"/>
-      <c r="S44" s="21">
+      <c r="R44" s="26"/>
+      <c r="S44" s="11">
         <f t="shared" si="39"/>
         <v>0.6</v>
       </c>
@@ -6636,7 +10009,7 @@
         <f t="shared" si="28"/>
         <v>0.4</v>
       </c>
-      <c r="U44" s="24">
+      <c r="U44">
         <f t="shared" si="29"/>
         <v>0.6</v>
       </c>
@@ -6644,7 +10017,7 @@
         <f t="shared" si="30"/>
         <v>0.6</v>
       </c>
-      <c r="W44" s="24">
+      <c r="W44">
         <f t="shared" si="31"/>
         <v>0.7</v>
       </c>
@@ -6652,7 +10025,7 @@
         <f t="shared" si="32"/>
         <v>0.7</v>
       </c>
-      <c r="Y44" s="24">
+      <c r="Y44">
         <f t="shared" si="33"/>
         <v>0.5</v>
       </c>
@@ -6660,7 +10033,7 @@
         <f t="shared" si="34"/>
         <v>0.7</v>
       </c>
-      <c r="AA44" s="24">
+      <c r="AA44">
         <f t="shared" si="35"/>
         <v>0.5</v>
       </c>
@@ -6668,7 +10041,7 @@
         <f t="shared" si="36"/>
         <v>0.6</v>
       </c>
-      <c r="AC44" s="24">
+      <c r="AC44">
         <f t="shared" si="37"/>
         <v>0.6</v>
       </c>
@@ -6676,13 +10049,12 @@
         <f t="shared" si="40"/>
         <v>0.5</v>
       </c>
-      <c r="AE44" s="28"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="15"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="5">
         <v>5</v>
       </c>
@@ -6723,11 +10095,11 @@
         <f t="shared" si="38"/>
         <v>0.43089430894308944</v>
       </c>
-      <c r="Q45" s="14" t="s">
+      <c r="Q45" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="R45" s="15"/>
-      <c r="S45" s="21">
+      <c r="R45" s="26"/>
+      <c r="S45" s="11">
         <f t="shared" si="39"/>
         <v>0.5</v>
       </c>
@@ -6735,7 +10107,7 @@
         <f t="shared" si="28"/>
         <v>0.2</v>
       </c>
-      <c r="U45" s="24">
+      <c r="U45">
         <f t="shared" si="29"/>
         <v>0.6</v>
       </c>
@@ -6743,7 +10115,7 @@
         <f t="shared" si="30"/>
         <v>0.6</v>
       </c>
-      <c r="W45" s="24">
+      <c r="W45">
         <f t="shared" si="31"/>
         <v>0.5</v>
       </c>
@@ -6751,7 +10123,7 @@
         <f t="shared" si="32"/>
         <v>0.4</v>
       </c>
-      <c r="Y45" s="24">
+      <c r="Y45">
         <f t="shared" si="33"/>
         <v>0.5</v>
       </c>
@@ -6759,7 +10131,7 @@
         <f t="shared" si="34"/>
         <v>0.6</v>
       </c>
-      <c r="AA45" s="24">
+      <c r="AA45">
         <f t="shared" si="35"/>
         <v>0.3</v>
       </c>
@@ -6767,7 +10139,7 @@
         <f t="shared" si="36"/>
         <v>0.5</v>
       </c>
-      <c r="AC45" s="24">
+      <c r="AC45">
         <f t="shared" si="37"/>
         <v>0.6</v>
       </c>
@@ -6775,13 +10147,12 @@
         <f t="shared" si="40"/>
         <v>0.375</v>
       </c>
-      <c r="AE45" s="28"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="5">
         <v>8</v>
       </c>
@@ -6822,11 +10193,11 @@
         <f t="shared" si="38"/>
         <v>0.64227642276422769</v>
       </c>
-      <c r="Q46" s="14" t="s">
+      <c r="Q46" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="R46" s="15"/>
-      <c r="S46" s="21">
+      <c r="R46" s="26"/>
+      <c r="S46" s="11">
         <f t="shared" si="39"/>
         <v>0.8</v>
       </c>
@@ -6834,7 +10205,7 @@
         <f t="shared" si="28"/>
         <v>0.4</v>
       </c>
-      <c r="U46" s="24">
+      <c r="U46">
         <f t="shared" si="29"/>
         <v>0.7</v>
       </c>
@@ -6842,7 +10213,7 @@
         <f t="shared" si="30"/>
         <v>0.8</v>
       </c>
-      <c r="W46" s="24">
+      <c r="W46">
         <f t="shared" si="31"/>
         <v>0.7</v>
       </c>
@@ -6850,7 +10221,7 @@
         <f t="shared" si="32"/>
         <v>0.8</v>
       </c>
-      <c r="Y46" s="24">
+      <c r="Y46">
         <f t="shared" si="33"/>
         <v>0.7</v>
       </c>
@@ -6858,7 +10229,7 @@
         <f t="shared" si="34"/>
         <v>0.9</v>
       </c>
-      <c r="AA46" s="24">
+      <c r="AA46">
         <f t="shared" si="35"/>
         <v>0.6</v>
       </c>
@@ -6866,7 +10237,7 @@
         <f t="shared" si="36"/>
         <v>0.7</v>
       </c>
-      <c r="AC46" s="24">
+      <c r="AC46">
         <f t="shared" si="37"/>
         <v>0.8</v>
       </c>
@@ -6874,13 +10245,12 @@
         <f t="shared" si="40"/>
         <v>1</v>
       </c>
-      <c r="AE46" s="28"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="15"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="5">
         <v>7</v>
       </c>
@@ -6921,11 +10291,11 @@
         <f t="shared" si="38"/>
         <v>0.55284552845528456</v>
       </c>
-      <c r="Q47" s="19" t="s">
+      <c r="Q47" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="R47" s="26"/>
-      <c r="S47" s="22">
+      <c r="R47" s="34"/>
+      <c r="S47" s="12">
         <f t="shared" si="39"/>
         <v>0.7</v>
       </c>
@@ -6933,7 +10303,7 @@
         <f t="shared" si="28"/>
         <v>0.3</v>
       </c>
-      <c r="U47" s="27">
+      <c r="U47" s="13">
         <f t="shared" si="29"/>
         <v>0.6</v>
       </c>
@@ -6941,7 +10311,7 @@
         <f t="shared" si="30"/>
         <v>0.7</v>
       </c>
-      <c r="W47" s="27">
+      <c r="W47" s="13">
         <f t="shared" si="31"/>
         <v>0.8</v>
       </c>
@@ -6949,7 +10319,7 @@
         <f t="shared" si="32"/>
         <v>0.6</v>
       </c>
-      <c r="Y47" s="27">
+      <c r="Y47" s="13">
         <f t="shared" si="33"/>
         <v>0.7</v>
       </c>
@@ -6957,7 +10327,7 @@
         <f t="shared" si="34"/>
         <v>0.6</v>
       </c>
-      <c r="AA47" s="27">
+      <c r="AA47" s="13">
         <f t="shared" si="35"/>
         <v>0.5</v>
       </c>
@@ -6965,7 +10335,7 @@
         <f t="shared" si="36"/>
         <v>0.6</v>
       </c>
-      <c r="AC47" s="27">
+      <c r="AC47" s="13">
         <f t="shared" si="37"/>
         <v>0.7</v>
       </c>
@@ -6973,13 +10343,12 @@
         <f t="shared" si="40"/>
         <v>0.75</v>
       </c>
-      <c r="AE47" s="28"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="17"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="7">
         <f>SUM(C38:C47)/100</f>
         <v>0.64</v>
@@ -7032,21 +10401,8 @@
         <f>SUM(C38:N47)/1180</f>
         <v>0.63644067796610171</v>
       </c>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="24"/>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="24"/>
-      <c r="AD48" s="24"/>
-      <c r="AE48" s="24"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="31"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -7055,24 +10411,11 @@
         <v>5</v>
       </c>
       <c r="O49" s="7">
-        <f>SUM(C38:M47)</f>
-        <v>696</v>
-      </c>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-      <c r="AA49" s="24"/>
-      <c r="AB49" s="24"/>
-      <c r="AC49" s="24"/>
-      <c r="AD49" s="24"/>
-      <c r="AE49" s="24"/>
+        <f>SUM(C38:N47)</f>
+        <v>751</v>
+      </c>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
@@ -7082,163 +10425,150 @@
       </c>
       <c r="O50" s="7">
         <f>SUM(-O49, 1180)</f>
-        <v>484</v>
-      </c>
-      <c r="Q50" s="25"/>
-      <c r="R50" s="25"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="24"/>
-      <c r="AA50" s="24"/>
-      <c r="AB50" s="24"/>
-      <c r="AC50" s="24"/>
-      <c r="AD50" s="24"/>
-      <c r="AE50" s="24"/>
+        <v>429</v>
+      </c>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
     </row>
     <row r="51" spans="1:31" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="Q51" s="18" t="s">
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="Q51" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
     </row>
     <row r="52" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="16" t="s">
+      <c r="H52" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="I52" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J52" s="16" t="s">
+      <c r="J52" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L52" s="16" t="s">
+      <c r="L52" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M52" s="10" t="s">
+      <c r="M52" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N52" s="16" t="s">
+      <c r="N52" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="O52" s="10" t="s">
+      <c r="O52" s="21" t="s">
         <v>0</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" t="s">
         <v>7</v>
       </c>
-      <c r="S52" s="10" t="s">
+      <c r="S52" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="T52" s="16" t="s">
+      <c r="T52" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="U52" s="10" t="s">
+      <c r="U52" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="V52" s="16" t="s">
+      <c r="V52" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="W52" s="10" t="s">
+      <c r="W52" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="X52" s="16" t="s">
+      <c r="X52" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Y52" s="10" t="s">
+      <c r="Y52" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Z52" s="16" t="s">
+      <c r="Z52" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="AA52" s="10" t="s">
+      <c r="AA52" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AB52" s="16" t="s">
+      <c r="AB52" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AC52" s="10" t="s">
+      <c r="AC52" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AD52" s="14" t="s">
+      <c r="AD52" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AE52" s="23"/>
+      <c r="AE52" s="31"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="2"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
       <c r="Q53" t="s">
         <v>8</v>
       </c>
       <c r="R53" s="2"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="11"/>
-      <c r="AB53" s="11"/>
-      <c r="AC53" s="11"/>
-      <c r="AD53" s="19"/>
-      <c r="AE53" s="23"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="22"/>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="22"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="22"/>
+      <c r="AD53" s="32"/>
+      <c r="AE53" s="31"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="13"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="4">
         <v>7</v>
       </c>
@@ -7279,11 +10609,11 @@
         <f>SUM(C54:M54)/123</f>
         <v>0.56097560975609762</v>
       </c>
-      <c r="Q54" s="12" t="s">
+      <c r="Q54" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="R54" s="13"/>
-      <c r="S54" s="20">
+      <c r="R54" s="24"/>
+      <c r="S54" s="10">
         <f>C54/10</f>
         <v>0.7</v>
       </c>
@@ -7331,13 +10661,12 @@
         <f>N54/8</f>
         <v>0.625</v>
       </c>
-      <c r="AE54" s="24"/>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="15"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="5">
         <v>5</v>
       </c>
@@ -7378,11 +10707,11 @@
         <f t="shared" ref="O55:O63" si="60">SUM(C55:M55)/123</f>
         <v>0.41463414634146339</v>
       </c>
-      <c r="Q55" s="14" t="s">
+      <c r="Q55" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R55" s="15"/>
-      <c r="S55" s="21">
+      <c r="R55" s="26"/>
+      <c r="S55" s="11">
         <f t="shared" ref="S55:S63" si="61">C55/10</f>
         <v>0.5</v>
       </c>
@@ -7390,7 +10719,7 @@
         <f t="shared" si="50"/>
         <v>0.2</v>
       </c>
-      <c r="U55" s="24">
+      <c r="U55">
         <f t="shared" si="51"/>
         <v>0.4</v>
       </c>
@@ -7398,7 +10727,7 @@
         <f t="shared" si="52"/>
         <v>0.6</v>
       </c>
-      <c r="W55" s="24">
+      <c r="W55">
         <f t="shared" si="53"/>
         <v>0.6</v>
       </c>
@@ -7406,7 +10735,7 @@
         <f t="shared" si="54"/>
         <v>0.5</v>
       </c>
-      <c r="Y55" s="24">
+      <c r="Y55">
         <f t="shared" si="55"/>
         <v>0.4</v>
       </c>
@@ -7414,7 +10743,7 @@
         <f t="shared" si="56"/>
         <v>0.6</v>
       </c>
-      <c r="AA55" s="24">
+      <c r="AA55">
         <f t="shared" si="57"/>
         <v>0.4</v>
       </c>
@@ -7422,7 +10751,7 @@
         <f t="shared" si="58"/>
         <v>0.5</v>
       </c>
-      <c r="AC55" s="24">
+      <c r="AC55">
         <f t="shared" si="59"/>
         <v>0.4</v>
       </c>
@@ -7430,13 +10759,12 @@
         <f t="shared" ref="AD55:AD63" si="62">N55/8</f>
         <v>0.5</v>
       </c>
-      <c r="AE55" s="24"/>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="15"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="5">
         <v>8</v>
       </c>
@@ -7477,11 +10805,11 @@
         <f t="shared" si="60"/>
         <v>0.65040650406504064</v>
       </c>
-      <c r="Q56" s="14" t="s">
+      <c r="Q56" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="R56" s="15"/>
-      <c r="S56" s="21">
+      <c r="R56" s="26"/>
+      <c r="S56" s="11">
         <f t="shared" si="61"/>
         <v>0.8</v>
       </c>
@@ -7489,7 +10817,7 @@
         <f t="shared" si="50"/>
         <v>0.6</v>
       </c>
-      <c r="U56" s="24">
+      <c r="U56">
         <f t="shared" si="51"/>
         <v>0.7</v>
       </c>
@@ -7497,7 +10825,7 @@
         <f t="shared" si="52"/>
         <v>0.9</v>
       </c>
-      <c r="W56" s="24">
+      <c r="W56">
         <f t="shared" si="53"/>
         <v>0.5</v>
       </c>
@@ -7505,7 +10833,7 @@
         <f t="shared" si="54"/>
         <v>0.7</v>
       </c>
-      <c r="Y56" s="24">
+      <c r="Y56">
         <f t="shared" si="55"/>
         <v>0.8</v>
       </c>
@@ -7513,7 +10841,7 @@
         <f t="shared" si="56"/>
         <v>0.9</v>
       </c>
-      <c r="AA56" s="24">
+      <c r="AA56">
         <f t="shared" si="57"/>
         <v>0.5</v>
       </c>
@@ -7521,7 +10849,7 @@
         <f t="shared" si="58"/>
         <v>0.7</v>
       </c>
-      <c r="AC56" s="24">
+      <c r="AC56">
         <f t="shared" si="59"/>
         <v>0.9</v>
       </c>
@@ -7529,13 +10857,12 @@
         <f t="shared" si="62"/>
         <v>0.75</v>
       </c>
-      <c r="AE56" s="24"/>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="15"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="5">
         <v>7</v>
       </c>
@@ -7576,11 +10903,11 @@
         <f t="shared" si="60"/>
         <v>0.65853658536585369</v>
       </c>
-      <c r="Q57" s="14" t="s">
+      <c r="Q57" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="R57" s="15"/>
-      <c r="S57" s="21">
+      <c r="R57" s="26"/>
+      <c r="S57" s="11">
         <f t="shared" si="61"/>
         <v>0.7</v>
       </c>
@@ -7588,7 +10915,7 @@
         <f t="shared" si="50"/>
         <v>0.5</v>
       </c>
-      <c r="U57" s="24">
+      <c r="U57">
         <f t="shared" si="51"/>
         <v>0.6</v>
       </c>
@@ -7596,7 +10923,7 @@
         <f t="shared" si="52"/>
         <v>0.9</v>
       </c>
-      <c r="W57" s="24">
+      <c r="W57">
         <f t="shared" si="53"/>
         <v>0.8</v>
       </c>
@@ -7604,7 +10931,7 @@
         <f t="shared" si="54"/>
         <v>0.8</v>
       </c>
-      <c r="Y57" s="24">
+      <c r="Y57">
         <f t="shared" si="55"/>
         <v>0.8</v>
       </c>
@@ -7612,7 +10939,7 @@
         <f t="shared" si="56"/>
         <v>0.9</v>
       </c>
-      <c r="AA57" s="24">
+      <c r="AA57">
         <f t="shared" si="57"/>
         <v>0.6</v>
       </c>
@@ -7620,7 +10947,7 @@
         <f t="shared" si="58"/>
         <v>0.8</v>
       </c>
-      <c r="AC57" s="24">
+      <c r="AC57">
         <f t="shared" si="59"/>
         <v>0.7</v>
       </c>
@@ -7628,13 +10955,12 @@
         <f t="shared" si="62"/>
         <v>0.875</v>
       </c>
-      <c r="AE57" s="28"/>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="15"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="5">
         <v>5</v>
       </c>
@@ -7675,11 +11001,11 @@
         <f t="shared" si="60"/>
         <v>0.48780487804878048</v>
       </c>
-      <c r="Q58" s="14" t="s">
+      <c r="Q58" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="R58" s="15"/>
-      <c r="S58" s="21">
+      <c r="R58" s="26"/>
+      <c r="S58" s="11">
         <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
@@ -7687,7 +11013,7 @@
         <f t="shared" si="50"/>
         <v>0.3</v>
       </c>
-      <c r="U58" s="24">
+      <c r="U58">
         <f t="shared" si="51"/>
         <v>0.6</v>
       </c>
@@ -7695,7 +11021,7 @@
         <f t="shared" si="52"/>
         <v>0.6</v>
       </c>
-      <c r="W58" s="24">
+      <c r="W58">
         <f t="shared" si="53"/>
         <v>0.5</v>
       </c>
@@ -7703,7 +11029,7 @@
         <f t="shared" si="54"/>
         <v>0.6</v>
       </c>
-      <c r="Y58" s="24">
+      <c r="Y58">
         <f t="shared" si="55"/>
         <v>0.6</v>
       </c>
@@ -7711,7 +11037,7 @@
         <f t="shared" si="56"/>
         <v>0.7</v>
       </c>
-      <c r="AA58" s="24">
+      <c r="AA58">
         <f t="shared" si="57"/>
         <v>0.5</v>
       </c>
@@ -7719,7 +11045,7 @@
         <f t="shared" si="58"/>
         <v>0.7</v>
       </c>
-      <c r="AC58" s="24">
+      <c r="AC58">
         <f t="shared" si="59"/>
         <v>0.4</v>
       </c>
@@ -7727,13 +11053,12 @@
         <f t="shared" si="62"/>
         <v>0.625</v>
       </c>
-      <c r="AE58" s="28"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="15"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="5">
         <v>8</v>
       </c>
@@ -7774,11 +11099,11 @@
         <f t="shared" si="60"/>
         <v>0.5934959349593496</v>
       </c>
-      <c r="Q59" s="14" t="s">
+      <c r="Q59" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="R59" s="15"/>
-      <c r="S59" s="21">
+      <c r="R59" s="26"/>
+      <c r="S59" s="11">
         <f t="shared" si="61"/>
         <v>0.8</v>
       </c>
@@ -7786,7 +11111,7 @@
         <f t="shared" si="50"/>
         <v>0.5</v>
       </c>
-      <c r="U59" s="24">
+      <c r="U59">
         <f t="shared" si="51"/>
         <v>0.6</v>
       </c>
@@ -7794,7 +11119,7 @@
         <f t="shared" si="52"/>
         <v>0.6</v>
       </c>
-      <c r="W59" s="24">
+      <c r="W59">
         <f t="shared" si="53"/>
         <v>0.7</v>
       </c>
@@ -7802,7 +11127,7 @@
         <f t="shared" si="54"/>
         <v>0.8</v>
       </c>
-      <c r="Y59" s="24">
+      <c r="Y59">
         <f t="shared" si="55"/>
         <v>0.6</v>
       </c>
@@ -7810,7 +11135,7 @@
         <f t="shared" si="56"/>
         <v>0.8</v>
       </c>
-      <c r="AA59" s="24">
+      <c r="AA59">
         <f t="shared" si="57"/>
         <v>0.6</v>
       </c>
@@ -7818,7 +11143,7 @@
         <f t="shared" si="58"/>
         <v>0.6</v>
       </c>
-      <c r="AC59" s="24">
+      <c r="AC59">
         <f t="shared" si="59"/>
         <v>0.7</v>
       </c>
@@ -7826,13 +11151,12 @@
         <f t="shared" si="62"/>
         <v>0.875</v>
       </c>
-      <c r="AE59" s="28"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="15"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="5">
         <v>5</v>
       </c>
@@ -7873,11 +11197,11 @@
         <f t="shared" si="60"/>
         <v>0.47967479674796748</v>
       </c>
-      <c r="Q60" s="14" t="s">
+      <c r="Q60" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="R60" s="15"/>
-      <c r="S60" s="21">
+      <c r="R60" s="26"/>
+      <c r="S60" s="11">
         <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
@@ -7885,7 +11209,7 @@
         <f t="shared" si="50"/>
         <v>0.4</v>
       </c>
-      <c r="U60" s="24">
+      <c r="U60">
         <f t="shared" si="51"/>
         <v>0.6</v>
       </c>
@@ -7893,7 +11217,7 @@
         <f t="shared" si="52"/>
         <v>0.6</v>
       </c>
-      <c r="W60" s="24">
+      <c r="W60">
         <f t="shared" si="53"/>
         <v>0.4</v>
       </c>
@@ -7901,7 +11225,7 @@
         <f t="shared" si="54"/>
         <v>0.6</v>
       </c>
-      <c r="Y60" s="24">
+      <c r="Y60">
         <f t="shared" si="55"/>
         <v>0.5</v>
       </c>
@@ -7909,7 +11233,7 @@
         <f t="shared" si="56"/>
         <v>0.7</v>
       </c>
-      <c r="AA60" s="24">
+      <c r="AA60">
         <f t="shared" si="57"/>
         <v>0.5</v>
       </c>
@@ -7917,7 +11241,7 @@
         <f t="shared" si="58"/>
         <v>0.6</v>
       </c>
-      <c r="AC60" s="24">
+      <c r="AC60">
         <f t="shared" si="59"/>
         <v>0.5</v>
       </c>
@@ -7925,13 +11249,12 @@
         <f t="shared" si="62"/>
         <v>0.5</v>
       </c>
-      <c r="AE60" s="28"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="15"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="5">
         <v>5</v>
       </c>
@@ -7972,11 +11295,11 @@
         <f t="shared" si="60"/>
         <v>0.44715447154471544</v>
       </c>
-      <c r="Q61" s="14" t="s">
+      <c r="Q61" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="R61" s="15"/>
-      <c r="S61" s="21">
+      <c r="R61" s="26"/>
+      <c r="S61" s="11">
         <f t="shared" si="61"/>
         <v>0.5</v>
       </c>
@@ -7984,7 +11307,7 @@
         <f t="shared" si="50"/>
         <v>0.2</v>
       </c>
-      <c r="U61" s="24">
+      <c r="U61">
         <f t="shared" si="51"/>
         <v>0.7</v>
       </c>
@@ -7992,7 +11315,7 @@
         <f t="shared" si="52"/>
         <v>0.6</v>
       </c>
-      <c r="W61" s="24">
+      <c r="W61">
         <f t="shared" si="53"/>
         <v>0.5</v>
       </c>
@@ -8000,7 +11323,7 @@
         <f t="shared" si="54"/>
         <v>0.4</v>
       </c>
-      <c r="Y61" s="24">
+      <c r="Y61">
         <f t="shared" si="55"/>
         <v>0.4</v>
       </c>
@@ -8008,7 +11331,7 @@
         <f t="shared" si="56"/>
         <v>0.6</v>
       </c>
-      <c r="AA61" s="24">
+      <c r="AA61">
         <f t="shared" si="57"/>
         <v>0.4</v>
       </c>
@@ -8016,7 +11339,7 @@
         <f t="shared" si="58"/>
         <v>0.5</v>
       </c>
-      <c r="AC61" s="24">
+      <c r="AC61">
         <f t="shared" si="59"/>
         <v>0.7</v>
       </c>
@@ -8024,13 +11347,12 @@
         <f t="shared" si="62"/>
         <v>0.5</v>
       </c>
-      <c r="AE61" s="28"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="15"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="5">
         <v>9</v>
       </c>
@@ -8071,11 +11393,11 @@
         <f t="shared" si="60"/>
         <v>0.68292682926829273</v>
       </c>
-      <c r="Q62" s="14" t="s">
+      <c r="Q62" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="R62" s="15"/>
-      <c r="S62" s="21">
+      <c r="R62" s="26"/>
+      <c r="S62" s="11">
         <f t="shared" si="61"/>
         <v>0.9</v>
       </c>
@@ -8083,7 +11405,7 @@
         <f t="shared" si="50"/>
         <v>0.4</v>
       </c>
-      <c r="U62" s="24">
+      <c r="U62">
         <f t="shared" si="51"/>
         <v>0.8</v>
       </c>
@@ -8091,7 +11413,7 @@
         <f t="shared" si="52"/>
         <v>0.8</v>
       </c>
-      <c r="W62" s="24">
+      <c r="W62">
         <f t="shared" si="53"/>
         <v>0.8</v>
       </c>
@@ -8099,7 +11421,7 @@
         <f t="shared" si="54"/>
         <v>0.8</v>
       </c>
-      <c r="Y62" s="24">
+      <c r="Y62">
         <f t="shared" si="55"/>
         <v>0.6</v>
       </c>
@@ -8107,7 +11429,7 @@
         <f t="shared" si="56"/>
         <v>0.9</v>
       </c>
-      <c r="AA62" s="24">
+      <c r="AA62">
         <f t="shared" si="57"/>
         <v>0.8</v>
       </c>
@@ -8115,7 +11437,7 @@
         <f t="shared" si="58"/>
         <v>0.7</v>
       </c>
-      <c r="AC62" s="24">
+      <c r="AC62">
         <f t="shared" si="59"/>
         <v>0.9</v>
       </c>
@@ -8123,13 +11445,12 @@
         <f t="shared" si="62"/>
         <v>0.875</v>
       </c>
-      <c r="AE62" s="28"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="15"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="5">
         <v>6</v>
       </c>
@@ -8170,11 +11491,11 @@
         <f t="shared" si="60"/>
         <v>0.58536585365853655</v>
       </c>
-      <c r="Q63" s="19" t="s">
+      <c r="Q63" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="R63" s="26"/>
-      <c r="S63" s="22">
+      <c r="R63" s="34"/>
+      <c r="S63" s="12">
         <f t="shared" si="61"/>
         <v>0.6</v>
       </c>
@@ -8182,7 +11503,7 @@
         <f t="shared" si="50"/>
         <v>0.4</v>
       </c>
-      <c r="U63" s="27">
+      <c r="U63" s="13">
         <f t="shared" si="51"/>
         <v>0.6</v>
       </c>
@@ -8190,7 +11511,7 @@
         <f t="shared" si="52"/>
         <v>0.7</v>
       </c>
-      <c r="W63" s="27">
+      <c r="W63" s="13">
         <f t="shared" si="53"/>
         <v>0.8</v>
       </c>
@@ -8198,7 +11519,7 @@
         <f t="shared" si="54"/>
         <v>0.6</v>
       </c>
-      <c r="Y63" s="27">
+      <c r="Y63" s="13">
         <f t="shared" si="55"/>
         <v>0.7</v>
       </c>
@@ -8206,7 +11527,7 @@
         <f t="shared" si="56"/>
         <v>0.8</v>
       </c>
-      <c r="AA63" s="27">
+      <c r="AA63" s="13">
         <f t="shared" si="57"/>
         <v>0.5</v>
       </c>
@@ -8214,7 +11535,7 @@
         <f t="shared" si="58"/>
         <v>0.8</v>
       </c>
-      <c r="AC63" s="27">
+      <c r="AC63" s="13">
         <f t="shared" si="59"/>
         <v>0.7</v>
       </c>
@@ -8222,13 +11543,12 @@
         <f t="shared" si="62"/>
         <v>0.625</v>
       </c>
-      <c r="AE63" s="28"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="17"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="7">
         <f>SUM(C54:C63)/100</f>
         <v>0.65</v>
@@ -8281,49 +11601,23 @@
         <f>SUM(C54:N63)/1180</f>
         <v>0.62542372881355934</v>
       </c>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="24"/>
-      <c r="U64" s="24"/>
-      <c r="V64" s="24"/>
-      <c r="W64" s="24"/>
-      <c r="X64" s="24"/>
-      <c r="Y64" s="24"/>
-      <c r="Z64" s="24"/>
-      <c r="AA64" s="24"/>
-      <c r="AB64" s="24"/>
-      <c r="AC64" s="24"/>
-      <c r="AD64" s="24"/>
-      <c r="AE64" s="24"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="31"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="N65" s="4" t="s">
         <v>5</v>
       </c>
       <c r="O65" s="7">
-        <f>SUM(C54:M63)</f>
-        <v>684</v>
-      </c>
-      <c r="Q65" s="25"/>
-      <c r="R65" s="25"/>
-      <c r="S65" s="24"/>
-      <c r="T65" s="24"/>
-      <c r="U65" s="24"/>
-      <c r="V65" s="24"/>
-      <c r="W65" s="24"/>
-      <c r="X65" s="24"/>
-      <c r="Y65" s="24"/>
-      <c r="Z65" s="24"/>
-      <c r="AA65" s="24"/>
-      <c r="AB65" s="24"/>
-      <c r="AC65" s="24"/>
-      <c r="AD65" s="24"/>
-      <c r="AE65" s="24"/>
+        <f>SUM(C54:N63)</f>
+        <v>738</v>
+      </c>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="N66" s="6" t="s">
@@ -8331,23 +11625,10 @@
       </c>
       <c r="O66" s="7">
         <f>SUM(-O65, 1180)</f>
-        <v>496</v>
-      </c>
-      <c r="Q66" s="25"/>
-      <c r="R66" s="25"/>
-      <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="24"/>
-      <c r="W66" s="24"/>
-      <c r="X66" s="24"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="24"/>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="24"/>
-      <c r="AD66" s="24"/>
-      <c r="AE66" s="24"/>
+        <v>442</v>
+      </c>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="202">
@@ -8563,7 +11844,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8576,210 +11857,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="43">
+      <c r="A4" s="4">
         <v>0.1</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="34">
+      <c r="B4" s="37">
         <v>0</v>
       </c>
-      <c r="E4" s="46">
+      <c r="C4" s="37">
         <v>0</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="44">
+      <c r="A5" s="5">
         <v>0.2</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="34">
+      <c r="B5" s="37">
+        <v>0</v>
+      </c>
+      <c r="C5" s="37">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="5">
         <v>2</v>
       </c>
-      <c r="F5" s="24"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="44">
+      <c r="A6" s="5">
         <v>0.3</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="34">
+      <c r="B6" s="37">
+        <v>4</v>
+      </c>
+      <c r="C6" s="37">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="F6" s="24"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="44">
+      <c r="A7" s="5">
         <v>0.4</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="34">
+      <c r="B7" s="37">
+        <v>13</v>
+      </c>
+      <c r="C7" s="37">
+        <v>8</v>
+      </c>
+      <c r="D7">
         <v>9</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="5">
         <v>13</v>
       </c>
-      <c r="F7" s="24"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="44">
+      <c r="A8" s="5">
         <v>0.5</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="34">
+      <c r="B8" s="37">
         <v>17</v>
       </c>
-      <c r="E8" s="47">
+      <c r="C8" s="37">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5">
         <v>23</v>
       </c>
-      <c r="F8" s="24"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="44">
+      <c r="A9" s="5">
         <v>0.6</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="34">
+      <c r="B9" s="37">
         <v>31</v>
       </c>
-      <c r="E9" s="47">
+      <c r="C9" s="37">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5">
         <v>28</v>
       </c>
-      <c r="F9" s="24"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="44">
+      <c r="A10" s="5">
         <v>0.7</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="34">
+      <c r="B10" s="37">
+        <v>23</v>
+      </c>
+      <c r="C10" s="37">
+        <v>35</v>
+      </c>
+      <c r="D10">
         <v>30</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="5">
         <v>23</v>
       </c>
-      <c r="F10" s="24"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="44">
+      <c r="A11" s="5">
         <v>0.8</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="34">
+      <c r="B11" s="37">
         <v>18</v>
       </c>
-      <c r="E11" s="47">
+      <c r="C11" s="37">
+        <v>12</v>
+      </c>
+      <c r="D11">
         <v>18</v>
       </c>
-      <c r="F11" s="24"/>
+      <c r="E11" s="5">
+        <v>18</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="44">
+      <c r="A12" s="5">
         <v>0.9</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="34">
-        <v>7</v>
-      </c>
-      <c r="E12" s="47">
+      <c r="B12" s="37">
+        <v>13</v>
+      </c>
+      <c r="C12" s="37">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5">
         <v>12</v>
       </c>
-      <c r="F12" s="24"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="45">
+      <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="38">
+      <c r="B13" s="38">
+        <v>1</v>
+      </c>
+      <c r="C13" s="39">
+        <v>4</v>
+      </c>
+      <c r="D13" s="13">
         <v>3</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="6">
         <v>0</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="6"/>
     </row>
   </sheetData>
@@ -8797,7 +12109,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
